--- a/TSS/TSS_Master_2023.xlsx
+++ b/TSS/TSS_Master_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate.sharepoint.com/sites/AWQP_Sharepoint/Shared Documents/Water_Quality_Project/Research/Edge of Field Monitoring and Data/TSS General/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molly\Documents\GitHub\ALS-Data-Cleaning-Tool\TSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="783" documentId="11_74A11649858B4A9F4EAD0D0DB276B1ADD36C4397" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC869D3F-3185-4609-930A-D1B8F0E46E2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846ECA4-2531-4C59-A1F7-1DF6E0EDE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="116">
   <si>
     <t>Column Name</t>
   </si>
@@ -374,12 +374,6 @@
     <t>ph, EC collected by Jake</t>
   </si>
   <si>
-    <t>BK-BAR-S1-OT-4</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>Boulder</t>
   </si>
   <si>
@@ -392,7 +386,43 @@
     <t>BOL-01-GB-4-D</t>
   </si>
   <si>
-    <t>Retest after pH and EC</t>
+    <t>SCA-02-GB-4</t>
+  </si>
+  <si>
+    <t>SCA-02-GB-4-D</t>
+  </si>
+  <si>
+    <t>SB-02-OT-ISC-4</t>
+  </si>
+  <si>
+    <t>SB-02-OT-ISC-4-D</t>
+  </si>
+  <si>
+    <t>SCI-02-GB-4</t>
+  </si>
+  <si>
+    <t>SCI-02-GB-4-D</t>
+  </si>
+  <si>
+    <t>SCO-02-GB-4</t>
+  </si>
+  <si>
+    <t>SCO-02-GB-4-D</t>
+  </si>
+  <si>
+    <t>TR-02-GB-4</t>
+  </si>
+  <si>
+    <t>TR-02-GB-4-D</t>
+  </si>
+  <si>
+    <t>MOR-02-GB-4</t>
+  </si>
+  <si>
+    <t>MOR-02-GB-4-D</t>
+  </si>
+  <si>
+    <t>Caz (TSS, pH, EC), Dani cleaning</t>
   </si>
 </sst>
 </file>
@@ -402,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,15 +871,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -857,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -880,7 +910,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -903,7 +933,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -914,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -925,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -936,7 +966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -947,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -958,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -969,7 +999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1049,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1035,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1074,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1052,7 +1082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1060,7 +1090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1068,19 +1098,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1103,29 +1133,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B25874-14DA-4CDE-A9BC-C61EE37E0489}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:N29"/>
+    <sheetView tabSelected="1" topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" style="12"/>
+    <col min="16" max="16" width="10.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
       <c r="B2" s="12">
         <v>1</v>
@@ -1241,13 +1271,13 @@
         <v>75</v>
       </c>
       <c r="T2" s="12" t="b">
-        <f t="shared" ref="T2:T3" si="0">IF(I2-H2&gt;14, TRUE, FALSE)</f>
+        <f t="shared" ref="T2:T41" si="0">IF(F2-G2&gt;14, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="12">
         <v>1</v>
@@ -1301,7 +1331,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>77</v>
       </c>
@@ -1318,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>45044</v>
+        <v>45046</v>
       </c>
       <c r="G4" s="13">
         <v>45055</v>
@@ -1358,7 +1388,7 @@
         <v>75</v>
       </c>
       <c r="T4" s="12" t="b">
-        <f>IF(I4-H4&gt;14, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="12"/>
@@ -1366,7 +1396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
@@ -1383,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>45044</v>
+        <v>45046</v>
       </c>
       <c r="G5" s="13">
         <v>45055</v>
@@ -1422,7 +1452,7 @@
         <v>75</v>
       </c>
       <c r="T5" s="12" t="b">
-        <f>IF(I5-H5&gt;14, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="12"/>
@@ -1430,7 +1460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -1447,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G6" s="13">
         <v>45055</v>
@@ -1486,13 +1516,13 @@
         <v>75</v>
       </c>
       <c r="T6" s="12" t="b">
-        <f t="shared" ref="T6:T29" si="3">IF(I6-H6&gt;14, TRUE, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G7" s="13">
         <v>45055</v>
@@ -1547,11 +1577,11 @@
         <v>75</v>
       </c>
       <c r="T7" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>81</v>
       </c>
@@ -1568,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G8" s="13">
         <v>45055</v>
@@ -1606,14 +1636,14 @@
         <v>75</v>
       </c>
       <c r="T8" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
@@ -1630,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G9" s="13">
         <v>45055</v>
@@ -1668,14 +1698,14 @@
         <v>75</v>
       </c>
       <c r="T9" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G10" s="13">
         <v>45055</v>
@@ -1730,14 +1760,14 @@
         <v>75</v>
       </c>
       <c r="T10" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>81</v>
       </c>
@@ -1754,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G11" s="13">
         <v>45055</v>
@@ -1792,12 +1822,12 @@
         <v>75</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G12" s="13">
         <v>45055</v>
@@ -1852,11 +1882,11 @@
         <v>75</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -1873,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G13" s="13">
         <v>45055</v>
@@ -1911,11 +1941,11 @@
         <v>75</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
@@ -1932,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G14" s="13">
         <v>45055</v>
@@ -1970,11 +2000,11 @@
         <v>75</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>81</v>
       </c>
@@ -1991,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="G15" s="13">
         <v>45055</v>
@@ -2029,11 +2059,11 @@
         <v>75</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B16" s="12">
         <v>2</v>
       </c>
@@ -2073,11 +2103,11 @@
         <v>75</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B17" s="12">
         <v>2</v>
       </c>
@@ -2118,11 +2148,11 @@
         <v>93</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -2151,22 +2181,22 @@
         <v>1.2044999999999999</v>
       </c>
       <c r="M18" s="14">
-        <f>(SMALL(K18:L18,1)-J18)*1000</f>
+        <f t="shared" ref="M18:M23" si="3">(SMALL(K18:L18,1)-J18)*1000</f>
         <v>2.9999999999998916</v>
       </c>
       <c r="N18" s="14">
-        <f>M18/(I18/1000)</f>
+        <f t="shared" ref="N18:N23" si="4">M18/(I18/1000)</f>
         <v>99.99999999999639</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B19" s="12">
         <v>3</v>
       </c>
@@ -2195,22 +2225,22 @@
         <v>1.1976</v>
       </c>
       <c r="M19" s="14">
-        <f>(SMALL(K19:L19,1)-J19)*1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N19" s="14">
-        <f>M19/(I19/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2245,11 +2275,11 @@
         <v>1.3428</v>
       </c>
       <c r="M20" s="14">
-        <f>(SMALL(K20:L20,1)-J20)*1000</f>
+        <f t="shared" si="3"/>
         <v>113.69999999999992</v>
       </c>
       <c r="N20" s="14">
-        <f>M20/(I20/1000)</f>
+        <f t="shared" si="4"/>
         <v>3789.9999999999973</v>
       </c>
       <c r="O20" s="12">
@@ -2265,14 +2295,14 @@
         <v>93</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2307,11 +2337,11 @@
         <v>1.3208</v>
       </c>
       <c r="M21" s="14">
-        <f>(SMALL(K21:L21,1)-J21)*1000</f>
+        <f t="shared" si="3"/>
         <v>88.600000000000009</v>
       </c>
       <c r="N21" s="14">
-        <f>M21/(I21/1000)</f>
+        <f t="shared" si="4"/>
         <v>2953.3333333333339</v>
       </c>
       <c r="O21" s="12">
@@ -2327,25 +2357,25 @@
         <v>93</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B22" s="12">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2363,39 +2393,48 @@
         <v>30</v>
       </c>
       <c r="J22">
-        <v>1.2133</v>
+        <v>1.2146999999999999</v>
       </c>
       <c r="K22">
-        <v>1.2133</v>
+        <v>1.2158</v>
       </c>
       <c r="M22" s="14">
-        <f>(SMALL(K22:L22,1)-J22)*1000</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.1000000000001009</v>
       </c>
       <c r="N22" s="14">
-        <f>M22/(I22/1000)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>36.666666666670032</v>
+      </c>
+      <c r="O22" s="12">
+        <v>8.33</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0.1348</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>45068.510416666664</v>
       </c>
       <c r="S22" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="12">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>102</v>
@@ -2416,110 +2455,92 @@
         <v>30</v>
       </c>
       <c r="J23">
-        <v>1.2146999999999999</v>
+        <v>1.1921999999999999</v>
       </c>
       <c r="K23">
-        <v>1.2158</v>
+        <v>1.1929000000000001</v>
       </c>
       <c r="M23" s="14">
-        <f>(SMALL(K23:L23,1)-J23)*1000</f>
-        <v>1.1000000000001009</v>
+        <f t="shared" si="3"/>
+        <v>0.70000000000014495</v>
       </c>
       <c r="N23" s="14">
-        <f>M23/(I23/1000)</f>
-        <v>36.666666666670032</v>
+        <f t="shared" si="4"/>
+        <v>23.333333333338167</v>
       </c>
       <c r="O23" s="12">
-        <v>8.33</v>
+        <v>8.35</v>
       </c>
       <c r="P23" s="12">
-        <v>0.1348</v>
+        <v>0.1346</v>
       </c>
       <c r="Q23" s="16">
-        <v>45068.510416666664</v>
+        <v>45069.510416666664</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T23" s="12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" t="s">
         <v>101</v>
       </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B24" s="12">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F24" s="6">
-        <v>45058</v>
+        <v>45070</v>
       </c>
       <c r="G24" s="6">
-        <v>45067</v>
+        <v>45070</v>
       </c>
       <c r="H24" s="6">
-        <v>45068</v>
+        <v>45071</v>
       </c>
       <c r="I24" s="12">
         <v>30</v>
       </c>
       <c r="J24">
-        <v>1.1921999999999999</v>
+        <v>1.1944999999999999</v>
       </c>
       <c r="K24">
-        <v>1.1929000000000001</v>
+        <v>1.1975</v>
       </c>
       <c r="M24" s="14">
-        <f>(SMALL(K24:L24,1)-J24)*1000</f>
-        <v>0.70000000000014495</v>
+        <f t="shared" ref="M24:M25" si="5">(SMALL(K24:L24,1)-J24)*1000</f>
+        <v>3.0000000000001137</v>
       </c>
       <c r="N24" s="14">
-        <f>M24/(I24/1000)</f>
-        <v>23.333333333338167</v>
-      </c>
-      <c r="O24" s="12">
-        <v>8.35</v>
-      </c>
-      <c r="P24" s="12">
-        <v>0.1346</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>45069.510416666664</v>
+        <f t="shared" ref="N24:N25" si="6">M24/(I24/1000)</f>
+        <v>100.00000000000379</v>
       </c>
       <c r="S24" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T24" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B25" s="12">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="6">
         <v>45070</v>
@@ -2534,130 +2555,664 @@
         <v>30</v>
       </c>
       <c r="J25">
-        <v>1.1944999999999999</v>
+        <v>1.2125999999999999</v>
       </c>
       <c r="K25">
-        <v>1.1975</v>
+        <v>1.2124999999999999</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" ref="M25:M29" si="4">(SMALL(K25:L25,1)-J25)*1000</f>
-        <v>3.0000000000001137</v>
+        <f t="shared" si="5"/>
+        <v>-9.9999999999988987E-2</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" ref="N25:N29" si="5">M25/(I25/1000)</f>
-        <v>100.00000000000379</v>
+        <f t="shared" si="6"/>
+        <v>-3.3333333333329662</v>
       </c>
       <c r="S25" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T25" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="B26" s="12">
-        <v>3</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
       <c r="C26">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="6">
-        <v>45070</v>
+        <v>45081</v>
       </c>
       <c r="G26" s="6">
-        <v>45070</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45071</v>
-      </c>
+        <v>45081</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="12">
         <v>30</v>
       </c>
       <c r="J26">
-        <v>1.2125999999999999</v>
-      </c>
-      <c r="K26">
-        <v>1.2124999999999999</v>
-      </c>
-      <c r="M26" s="14">
-        <f t="shared" si="4"/>
-        <v>-9.9999999999988987E-2</v>
-      </c>
-      <c r="N26" s="14">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333329662</v>
-      </c>
+        <v>1.2258</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
       <c r="S26" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T26" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="B27" s="12"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45081</v>
+      </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="12">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>1.2114</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="S27" s="12" t="s">
         <v>93</v>
       </c>
       <c r="T27" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I28" s="12">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>1.2096</v>
+      </c>
+      <c r="O28" s="12">
+        <v>8.18</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>45082.486111111109</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I29" s="12">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>1.2133</v>
+      </c>
+      <c r="O29" s="12">
+        <v>8.15</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>45082.486111111109</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T29" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="B28" s="12"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="12"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="S28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T28" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="B29" s="12"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="12"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="S29" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T29" s="12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="F30" s="6"/>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I30" s="12">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>1.2211000000000001</v>
+      </c>
+      <c r="O30" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T30" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I31" s="12">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>1.2148000000000001</v>
+      </c>
+      <c r="O31" s="12">
+        <v>8.24</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T31" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I32" s="12">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="O32" s="12">
+        <v>8.36</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T32" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I33" s="12">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>1.2131000000000001</v>
+      </c>
+      <c r="O33" s="12">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T33" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I34" s="12">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>1.2038</v>
+      </c>
+      <c r="O34" s="12">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T34" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I35" s="12">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>1.2376</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T35" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I36" s="12">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>1.216</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T36" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I37" s="12">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>1.2197</v>
+      </c>
+      <c r="O37" s="12">
+        <v>8.42</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T37" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I38" s="12">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <v>1.1967000000000001</v>
+      </c>
+      <c r="O38" s="12">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="P38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G39" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I39" s="12">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>1.2123999999999999</v>
+      </c>
+      <c r="O39" s="12">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T39" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I40" s="12">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>1.2065999999999999</v>
+      </c>
+      <c r="O40" s="12">
+        <v>7.72</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T40" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G41" s="6">
+        <v>45081</v>
+      </c>
+      <c r="I41" s="12">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>1.2017</v>
+      </c>
+      <c r="O41" s="12">
+        <v>7.51</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="T41" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B42" s="12"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,9 +3229,9 @@
       <selection activeCell="A4" sqref="A4:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -2720,9 +3275,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
@@ -2731,7 +3286,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -2763,9 +3318,9 @@
         <v>36.666666666670032</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
@@ -2774,7 +3329,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2806,9 +3361,9 @@
         <v>23.333333333338167</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
@@ -2817,7 +3372,7 @@
         <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2849,9 +3404,9 @@
         <v>19.999999999997797</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
@@ -2860,7 +3415,7 @@
         <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2892,9 +3447,9 @@
         <v>16.666666666672235</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2903,7 +3458,7 @@
         <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2948,14 +3503,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -2996,7 +3551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3035,7 +3590,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3074,7 +3629,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -3111,7 +3666,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3149,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3186,7 +3741,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3223,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -3260,7 +3815,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -3556,9 +4111,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
+    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TSS/TSS_Master_2023.xlsx
+++ b/TSS/TSS_Master_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molly\Documents\GitHub\ALS-Data-Cleaning-Tool\TSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate.sharepoint.com/sites/AWQP_Sharepoint/Shared Documents/Water_Quality_Project/Research/Edge of Field Monitoring and Data/TSS General/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846ECA4-2531-4C59-A1F7-1DF6E0EDE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9538C6EE-2124-42AE-99DE-86B44007D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
   <si>
     <t>Column Name</t>
   </si>
@@ -389,6 +389,9 @@
     <t>SCA-02-GB-4</t>
   </si>
   <si>
+    <t>Caz (TSS, pH, EC), Dani cleaning</t>
+  </si>
+  <si>
     <t>SCA-02-GB-4-D</t>
   </si>
   <si>
@@ -422,7 +425,22 @@
     <t>MOR-02-GB-4-D</t>
   </si>
   <si>
-    <t>Caz (TSS, pH, EC), Dani cleaning</t>
+    <t>UYM-02-IN-LC-4</t>
+  </si>
+  <si>
+    <t>UYM-02-IN-LC-4-D</t>
+  </si>
+  <si>
+    <t>UYM-02-OT-ISC-4-1</t>
+  </si>
+  <si>
+    <t>UYM-02-OT-ISC-4-2</t>
+  </si>
+  <si>
+    <t>UYM-OT-ISC-4-3</t>
+  </si>
+  <si>
+    <t>UYM-OT-ISC-4-4</t>
   </si>
 </sst>
 </file>
@@ -432,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -527,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,6 +584,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -871,15 +909,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -887,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -910,7 +948,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -933,7 +971,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -944,7 +982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -955,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -966,7 +1004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -977,7 +1015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1087,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1065,7 +1103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1112,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1082,7 +1120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1090,7 +1128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1098,19 +1136,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1118,7 +1156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1133,29 +1171,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B25874-14DA-4CDE-A9BC-C61EE37E0489}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1328125" style="12"/>
-    <col min="16" max="16" width="10.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="12"/>
+    <col min="16" max="16" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22">
       <c r="A2" s="12"/>
       <c r="B2" s="12">
         <v>1</v>
@@ -1274,10 +1312,13 @@
         <f t="shared" ref="T2:T41" si="0">IF(F2-G2&gt;14, TRUE, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="12"/>
+      <c r="U2" s="12" t="str">
+        <f>IF(AND(D2="Stock Solution", N2&gt;=90, N2&lt;=110), "Good", IF(AND(D2="DI", N2&gt;=-3.33, N2&lt;=3.33), "Good", IF(OR(D2&lt;&gt;"Stock Solution", D2&lt;&gt;"DI"), "", "Bad")))</f>
+        <v>Good</v>
+      </c>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22">
       <c r="A3" s="12"/>
       <c r="B3" s="12">
         <v>1</v>
@@ -1328,10 +1369,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U3" s="12"/>
+      <c r="U3" s="12" t="str">
+        <f t="shared" ref="U3:U51" si="1">IF(AND(D3="Stock Solution", N3&gt;=90, N3&lt;=110), "Good", IF(AND(D3="DI", N3&gt;=-3.33, N3&lt;=3.33), "Good", IF(OR(D3&lt;&gt;"Stock Solution", D3&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22">
       <c r="A4" s="12" t="s">
         <v>77</v>
       </c>
@@ -1367,11 +1411,11 @@
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M17" si="1">(SMALL(K4:L4,1)-J4)*1000</f>
+        <f t="shared" ref="M4:M17" si="2">(SMALL(K4:L4,1)-J4)*1000</f>
         <v>0.99999999999988987</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N17" si="2">M4/(I4/1000)</f>
+        <f t="shared" ref="N4:N17" si="3">M4/(I4/1000)</f>
         <v>33.333333333329662</v>
       </c>
       <c r="O4" s="12">
@@ -1391,12 +1435,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="12"/>
+      <c r="U4" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V4" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22">
       <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
@@ -1431,11 +1478,11 @@
         <v>1.2319</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999994493</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.666666666664831</v>
       </c>
       <c r="O5" s="12">
@@ -1455,12 +1502,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -1495,11 +1545,11 @@
         <v>1.2374000000000001</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000015596</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.000000000005201</v>
       </c>
       <c r="O6" s="12">
@@ -1519,10 +1569,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -1557,11 +1610,11 @@
         <v>1.2178</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7000000000000366</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123.33333333333455</v>
       </c>
       <c r="O7" s="12">
@@ -1580,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="12" t="s">
         <v>81</v>
       </c>
@@ -1616,11 +1673,11 @@
         <v>1.2139</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29999999999996696</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999988987</v>
       </c>
       <c r="O8" s="12">
@@ -1639,11 +1696,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V8" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22">
       <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
@@ -1678,11 +1739,11 @@
         <v>1.1979</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999988987E-2</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333329662</v>
       </c>
       <c r="O9" s="12">
@@ -1701,11 +1762,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V9" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22">
       <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
@@ -1740,11 +1805,11 @@
         <v>1.2094</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2000000000000917</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106.66666666666973</v>
       </c>
       <c r="O10" s="12">
@@ -1763,11 +1828,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V10" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22">
       <c r="A11" s="12" t="s">
         <v>81</v>
       </c>
@@ -1802,11 +1871,11 @@
         <v>1.2301</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29999999999996696</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999988987</v>
       </c>
       <c r="O11" s="12">
@@ -1825,9 +1894,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22">
       <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
@@ -1862,11 +1935,11 @@
         <v>1.2055</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4999999999999467</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.333333333331566</v>
       </c>
       <c r="O12" s="12">
@@ -1885,8 +1958,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -1921,11 +1998,11 @@
         <v>1.2212000000000001</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7000000000001467</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.000000000004889</v>
       </c>
       <c r="O13" s="12">
@@ -1944,8 +2021,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
@@ -1980,11 +2061,11 @@
         <v>1.2237</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999994493</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.666666666664831</v>
       </c>
       <c r="O14" s="12">
@@ -2003,8 +2084,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="12" t="s">
         <v>81</v>
       </c>
@@ -2039,11 +2124,11 @@
         <v>1.2044999999999999</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7999999999998018</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59.999999999993392</v>
       </c>
       <c r="O15" s="12">
@@ -2062,8 +2147,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="B16" s="12">
         <v>2</v>
       </c>
@@ -2092,11 +2181,11 @@
         <v>1.2198</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9999999999998916</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.99999999999639</v>
       </c>
       <c r="S16" s="12" t="s">
@@ -2106,8 +2195,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" s="12">
         <v>2</v>
       </c>
@@ -2137,11 +2230,11 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -2151,8 +2244,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -2181,11 +2278,11 @@
         <v>1.2044999999999999</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" ref="M18:M23" si="3">(SMALL(K18:L18,1)-J18)*1000</f>
+        <f t="shared" ref="M18:M23" si="4">(SMALL(K18:L18,1)-J18)*1000</f>
         <v>2.9999999999998916</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" ref="N18:N23" si="4">M18/(I18/1000)</f>
+        <f t="shared" ref="N18:N23" si="5">M18/(I18/1000)</f>
         <v>99.99999999999639</v>
       </c>
       <c r="S18" s="12" t="s">
@@ -2195,8 +2292,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="B19" s="12">
         <v>3</v>
       </c>
@@ -2225,11 +2326,11 @@
         <v>1.1976</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -2239,8 +2340,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2275,11 +2380,11 @@
         <v>1.3428</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113.69999999999992</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3789.9999999999973</v>
       </c>
       <c r="O20" s="12">
@@ -2298,11 +2403,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2337,11 +2446,11 @@
         <v>1.3208</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88.600000000000009</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2953.3333333333339</v>
       </c>
       <c r="O21" s="12">
@@ -2360,11 +2469,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -2399,11 +2512,11 @@
         <v>1.2158</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000001009</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.666666666670032</v>
       </c>
       <c r="O22" s="12">
@@ -2422,11 +2535,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2461,11 +2578,11 @@
         <v>1.1929000000000001</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70000000000014495</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.333333333338167</v>
       </c>
       <c r="O23" s="12">
@@ -2484,11 +2601,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22">
       <c r="B24" s="12">
         <v>3</v>
       </c>
@@ -2517,11 +2638,11 @@
         <v>1.1975</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" ref="M24:M25" si="5">(SMALL(K24:L24,1)-J24)*1000</f>
+        <f t="shared" ref="M24:M49" si="6">(SMALL(K24:L24,1)-J24)*1000</f>
         <v>3.0000000000001137</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" ref="N24:N25" si="6">M24/(I24/1000)</f>
+        <f t="shared" ref="N24:N43" si="7">M24/(I24/1000)</f>
         <v>100.00000000000379</v>
       </c>
       <c r="S24" s="12" t="s">
@@ -2531,8 +2652,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="B25" s="12">
         <v>3</v>
       </c>
@@ -2561,11 +2686,11 @@
         <v>1.2124999999999999</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.9999999999988987E-2</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3333333333329662</v>
       </c>
       <c r="S25" s="12" t="s">
@@ -2575,9 +2700,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B26" s="12"/>
+      <c r="U25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="12">
+        <v>4</v>
+      </c>
       <c r="C26">
         <v>2</v>
       </c>
@@ -2590,15 +2721,26 @@
       <c r="G26" s="6">
         <v>45081</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>45085</v>
+      </c>
       <c r="I26" s="12">
         <v>30</v>
       </c>
       <c r="J26">
         <v>1.2258</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="K26">
+        <v>1.2258</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="12" t="s">
         <v>93</v>
       </c>
@@ -2606,8 +2748,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="B27" s="12">
         <v>4</v>
       </c>
@@ -2626,15 +2772,26 @@
       <c r="G27" s="6">
         <v>45081</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6">
+        <v>45085</v>
+      </c>
       <c r="I27" s="12">
         <v>30</v>
       </c>
       <c r="J27">
         <v>1.2114</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="K27">
+        <v>1.2143999999999999</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="6"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="7"/>
+        <v>99.99999999999639</v>
+      </c>
       <c r="S27" s="12" t="s">
         <v>93</v>
       </c>
@@ -2642,8 +2799,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -2662,12 +2823,26 @@
       <c r="G28" s="6">
         <v>45081</v>
       </c>
+      <c r="H28" s="6">
+        <v>45085</v>
+      </c>
       <c r="I28" s="12">
         <v>30</v>
       </c>
       <c r="J28">
         <v>1.2096</v>
       </c>
+      <c r="K28">
+        <v>1.2105999999999999</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="6"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="7"/>
+        <v>33.333333333329662</v>
+      </c>
       <c r="O28" s="12">
         <v>8.18</v>
       </c>
@@ -2678,14 +2853,18 @@
         <v>45082.486111111109</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T28" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U28" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="B29" s="12">
         <v>4</v>
       </c>
@@ -2693,7 +2872,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2704,12 +2883,26 @@
       <c r="G29" s="6">
         <v>45081</v>
       </c>
+      <c r="H29" s="6">
+        <v>45085</v>
+      </c>
       <c r="I29" s="12">
         <v>30</v>
       </c>
       <c r="J29">
         <v>1.2133</v>
       </c>
+      <c r="K29">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="6"/>
+        <v>1.2999999999998568</v>
+      </c>
+      <c r="N29" s="14">
+        <f t="shared" si="7"/>
+        <v>43.333333333328561</v>
+      </c>
       <c r="O29" s="12">
         <v>8.15</v>
       </c>
@@ -2720,14 +2913,18 @@
         <v>45082.486111111109</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T29" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U29" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -2735,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2746,12 +2943,26 @@
       <c r="G30" s="6">
         <v>45081</v>
       </c>
+      <c r="H30" s="6">
+        <v>45085</v>
+      </c>
       <c r="I30" s="12">
         <v>30</v>
       </c>
       <c r="J30">
         <v>1.2211000000000001</v>
       </c>
+      <c r="K30">
+        <v>1.2218</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="6"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N30" s="14">
+        <f t="shared" si="7"/>
+        <v>23.333333333330764</v>
+      </c>
       <c r="O30" s="12">
         <v>8.25</v>
       </c>
@@ -2762,14 +2973,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U30" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="B31" s="12">
         <v>4</v>
       </c>
@@ -2777,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2788,12 +3003,26 @@
       <c r="G31" s="6">
         <v>45081</v>
       </c>
+      <c r="H31" s="6">
+        <v>45085</v>
+      </c>
       <c r="I31" s="12">
         <v>30</v>
       </c>
       <c r="J31">
         <v>1.2148000000000001</v>
       </c>
+      <c r="K31">
+        <v>1.2156</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="6"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N31" s="14">
+        <f t="shared" si="7"/>
+        <v>26.66666666666373</v>
+      </c>
       <c r="O31" s="12">
         <v>8.24</v>
       </c>
@@ -2804,14 +3033,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T31" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U31" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="B32" s="12">
         <v>4</v>
       </c>
@@ -2819,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2830,12 +3063,26 @@
       <c r="G32" s="6">
         <v>45081</v>
       </c>
+      <c r="H32" s="6">
+        <v>45085</v>
+      </c>
       <c r="I32" s="12">
         <v>30</v>
       </c>
       <c r="J32">
         <v>1.2181999999999999</v>
       </c>
+      <c r="K32">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="6"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N32" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999988987</v>
+      </c>
       <c r="O32" s="12">
         <v>8.36</v>
       </c>
@@ -2846,14 +3093,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T32" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U32" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="12">
         <v>4</v>
       </c>
@@ -2861,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2872,12 +3123,26 @@
       <c r="G33" s="6">
         <v>45081</v>
       </c>
+      <c r="H33" s="6">
+        <v>45085</v>
+      </c>
       <c r="I33" s="12">
         <v>30</v>
       </c>
       <c r="J33">
         <v>1.2131000000000001</v>
       </c>
+      <c r="K33">
+        <v>1.2134</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="6"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N33" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999988987</v>
+      </c>
       <c r="O33" s="12">
         <v>8.3699999999999992</v>
       </c>
@@ -2888,14 +3153,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T33" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U33" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -2903,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2914,12 +3183,26 @@
       <c r="G34" s="6">
         <v>45081</v>
       </c>
+      <c r="H34" s="6">
+        <v>45085</v>
+      </c>
       <c r="I34" s="12">
         <v>30</v>
       </c>
       <c r="J34">
         <v>1.2038</v>
       </c>
+      <c r="K34">
+        <v>1.2039</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="6"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N34" s="14">
+        <f t="shared" si="7"/>
+        <v>3.3333333333329662</v>
+      </c>
       <c r="O34" s="12">
         <v>8.4700000000000006</v>
       </c>
@@ -2930,14 +3213,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T34" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U34" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="12">
         <v>4</v>
       </c>
@@ -2953,21 +3240,39 @@
       <c r="G35" s="6">
         <v>45081</v>
       </c>
+      <c r="H35" s="6">
+        <v>45085</v>
+      </c>
       <c r="I35" s="12">
         <v>30</v>
       </c>
       <c r="J35">
         <v>1.2376</v>
       </c>
+      <c r="K35">
+        <v>1.2406999999999999</v>
+      </c>
+      <c r="M35" s="14">
+        <f t="shared" si="6"/>
+        <v>3.0999999999998806</v>
+      </c>
+      <c r="N35" s="14">
+        <f t="shared" si="7"/>
+        <v>103.33333333332936</v>
+      </c>
       <c r="S35" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T35" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U35" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="12">
         <v>5</v>
       </c>
@@ -2983,21 +3288,39 @@
       <c r="G36" s="6">
         <v>45081</v>
       </c>
+      <c r="H36" s="6">
+        <v>45085</v>
+      </c>
       <c r="I36" s="12">
         <v>30</v>
       </c>
       <c r="J36">
         <v>1.216</v>
       </c>
+      <c r="K36">
+        <v>1.216</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="S36" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T36" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U36" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="12">
         <v>5</v>
       </c>
@@ -3005,7 +3328,7 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -3016,12 +3339,26 @@
       <c r="G37" s="6">
         <v>45081</v>
       </c>
+      <c r="H37" s="6">
+        <v>45085</v>
+      </c>
       <c r="I37" s="12">
         <v>30</v>
       </c>
       <c r="J37">
         <v>1.2197</v>
       </c>
+      <c r="K37">
+        <v>1.22</v>
+      </c>
+      <c r="M37" s="14">
+        <f t="shared" si="6"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N37" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999988987</v>
+      </c>
       <c r="O37" s="12">
         <v>8.42</v>
       </c>
@@ -3032,14 +3369,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T37" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U37" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
       <c r="B38" s="12">
         <v>5</v>
       </c>
@@ -3047,7 +3388,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -3058,12 +3399,26 @@
       <c r="G38" s="6">
         <v>45081</v>
       </c>
+      <c r="H38" s="6">
+        <v>45085</v>
+      </c>
       <c r="I38" s="12">
         <v>30</v>
       </c>
       <c r="J38">
         <v>1.1967000000000001</v>
       </c>
+      <c r="K38">
+        <v>1.1975</v>
+      </c>
+      <c r="M38" s="14">
+        <f t="shared" si="6"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N38" s="14">
+        <f t="shared" si="7"/>
+        <v>26.66666666666373</v>
+      </c>
       <c r="O38" s="12">
         <v>8.2200000000000006</v>
       </c>
@@ -3074,14 +3429,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T38" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U38" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="12">
         <v>5</v>
       </c>
@@ -3089,7 +3448,7 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -3100,12 +3459,26 @@
       <c r="G39" s="6">
         <v>45081</v>
       </c>
+      <c r="H39" s="6">
+        <v>45085</v>
+      </c>
       <c r="I39" s="12">
         <v>30</v>
       </c>
       <c r="J39">
         <v>1.2123999999999999</v>
       </c>
+      <c r="K39">
+        <v>1.2132000000000001</v>
+      </c>
+      <c r="M39" s="14">
+        <f t="shared" si="6"/>
+        <v>0.80000000000013394</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="7"/>
+        <v>26.666666666671134</v>
+      </c>
       <c r="O39" s="12">
         <v>8.1199999999999992</v>
       </c>
@@ -3116,14 +3489,18 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T39" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="U39" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
       <c r="B40" s="12">
         <v>5</v>
       </c>
@@ -3131,7 +3508,7 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -3142,12 +3519,26 @@
       <c r="G40" s="6">
         <v>45081</v>
       </c>
+      <c r="H40" s="6">
+        <v>45085</v>
+      </c>
       <c r="I40" s="12">
         <v>30</v>
       </c>
       <c r="J40">
         <v>1.2065999999999999</v>
       </c>
+      <c r="K40">
+        <v>1.2074</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" si="6"/>
+        <v>0.80000000000013394</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" si="7"/>
+        <v>26.666666666671134</v>
+      </c>
       <c r="O40" s="12">
         <v>7.72</v>
       </c>
@@ -3158,61 +3549,454 @@
         <v>45082.486111053244</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="T40" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+      <c r="U40" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="19" customFormat="1">
+      <c r="B41" s="18">
         <v>5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="19">
         <v>48</v>
       </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="D41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="20">
         <v>45078</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="20">
         <v>45081</v>
       </c>
-      <c r="I41" s="12">
-        <v>30</v>
-      </c>
-      <c r="J41">
+      <c r="H41" s="20">
+        <v>45085</v>
+      </c>
+      <c r="I41" s="18">
+        <v>30</v>
+      </c>
+      <c r="J41" s="19">
         <v>1.2017</v>
       </c>
-      <c r="O41" s="12">
+      <c r="K41" s="19">
+        <v>1.2114</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="6"/>
+        <v>9.7000000000000419</v>
+      </c>
+      <c r="N41" s="22">
+        <f t="shared" si="7"/>
+        <v>323.33333333333474</v>
+      </c>
+      <c r="O41" s="18">
         <v>7.51</v>
       </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="16">
+      <c r="P41" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="21">
         <v>45082.486111053244</v>
       </c>
-      <c r="S41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="T41" s="12" t="b">
+      <c r="S41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T41" s="18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B42" s="12"/>
-      <c r="G42" s="6"/>
-      <c r="I42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
+      <c r="U41" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="12">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45089</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I42" s="12">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="K42">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="M42" s="23">
+        <f>(SMALL(K42:L42,1)-J42)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U42" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45089</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K43">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="M43" s="23">
+        <f t="shared" si="6"/>
+        <v>2.8000000000001357</v>
+      </c>
+      <c r="N43" s="23">
+        <f t="shared" si="7"/>
+        <v>93.333333333337862</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U43" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="12">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I44" s="12">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="K44">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="M44" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="23">
+        <f t="shared" ref="N44:N49" si="8">M44/(I44/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="P44" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U44" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I45">
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <v>1.1915</v>
+      </c>
+      <c r="K45">
+        <v>1.1915</v>
+      </c>
+      <c r="M45" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="P45" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U45" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="12">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I46" s="12">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>1.214</v>
+      </c>
+      <c r="K46">
+        <v>1.2142999999999999</v>
+      </c>
+      <c r="M46" s="23">
+        <f t="shared" si="6"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N46" s="23">
+        <f t="shared" si="8"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O46" s="12">
+        <v>7.89</v>
+      </c>
+      <c r="P46" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U46" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>1.1974</v>
+      </c>
+      <c r="K47">
+        <v>1.1976</v>
+      </c>
+      <c r="M47" s="23">
+        <f t="shared" si="6"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="N47" s="23">
+        <f t="shared" si="8"/>
+        <v>6.6666666666659324</v>
+      </c>
+      <c r="O47" s="12">
+        <v>8.02</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U47" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I48" s="12">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>1.2201</v>
+      </c>
+      <c r="K48">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="M48" s="23">
+        <f t="shared" si="6"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N48" s="23">
+        <f t="shared" si="8"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O48" s="12">
+        <v>8.01</v>
+      </c>
+      <c r="P48" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U48" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45089</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K49">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="M49" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="12">
+        <v>7.97</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U49" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="G50" s="6"/>
+      <c r="I50" s="12"/>
+      <c r="U50" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="U51" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3226,12 +4010,12 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -3275,7 +4059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3318,7 +4102,7 @@
         <v>36.666666666670032</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -3361,7 +4145,7 @@
         <v>23.333333333338167</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -3404,7 +4188,7 @@
         <v>19.999999999997797</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -3447,7 +4231,7 @@
         <v>16.666666666672235</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -3497,20 +4281,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD5783-6DE4-4462-AE79-C2E78620ED17}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="Q2" sqref="Q2:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -3551,7 +4335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3590,7 +4374,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3629,7 +4413,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -3666,7 +4450,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3704,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3741,7 +4525,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3778,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -3807,15 +4591,15 @@
         <v>1.1975</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" ref="L8:L9" si="2">(SMALL(J8:K8,1)-I8)*1000</f>
+        <f t="shared" ref="L8:L11" si="2">(SMALL(J8:K8,1)-I8)*1000</f>
         <v>3.0000000000001137</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" ref="M8:M9" si="3">L8/(H8/1000)</f>
+        <f t="shared" ref="M8:M11" si="3">L8/(H8/1000)</f>
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -3850,6 +4634,74 @@
       <c r="M9" s="14">
         <f t="shared" si="3"/>
         <v>-3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45089</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H10" s="12">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="J10">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45089</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="J11">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="2"/>
+        <v>2.8000000000001357</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="3"/>
+        <v>93.333333333337862</v>
       </c>
     </row>
   </sheetData>
@@ -4111,28 +4963,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
-    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}"/>
 </file>
--- a/TSS/TSS_Master_2023.xlsx
+++ b/TSS/TSS_Master_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26707"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate.sharepoint.com/sites/AWQP_Sharepoint/Shared Documents/Water_Quality_Project/Research/Edge of Field Monitoring and Data/TSS General/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9538C6EE-2124-42AE-99DE-86B44007D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD1C7A6-C9CC-4F78-9918-6D0985DF85E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="183">
   <si>
     <t>Column Name</t>
   </si>
@@ -425,6 +425,12 @@
     <t>MOR-02-GB-4-D</t>
   </si>
   <si>
+    <t>Don'y use this value in the future, bad error</t>
+  </si>
+  <si>
+    <t>Yampa</t>
+  </si>
+  <si>
     <t>UYM-02-IN-LC-4</t>
   </si>
   <si>
@@ -441,6 +447,183 @@
   </si>
   <si>
     <t>UYM-OT-ISC-4-4</t>
+  </si>
+  <si>
+    <t>Caz</t>
+  </si>
+  <si>
+    <t>GU-02-IN-LC-4</t>
+  </si>
+  <si>
+    <t>GU-02-IN-LC-4-D</t>
+  </si>
+  <si>
+    <t>GU-02-OT-ISC-4</t>
+  </si>
+  <si>
+    <t>GU-02-OT-ISC-4-D</t>
+  </si>
+  <si>
+    <t>MOL-01-IN-LC-4</t>
+  </si>
+  <si>
+    <t>MOL-01-IN-LC-4-D</t>
+  </si>
+  <si>
+    <t>MOL-01-OT-ISC-4</t>
+  </si>
+  <si>
+    <t>MOL-01-OT-ISC-4-D</t>
+  </si>
+  <si>
+    <t>AV-CT1-01-OT-LC-4</t>
+  </si>
+  <si>
+    <t>AV-CT1-01-OT-LC-4-D</t>
+  </si>
+  <si>
+    <t>AV-ST1-01-OT-LC-4</t>
+  </si>
+  <si>
+    <t>AV-ST1-01-OT-LC-4-D</t>
+  </si>
+  <si>
+    <t>AV-ST2-01-OT-LC-4</t>
+  </si>
+  <si>
+    <t>AV-ST2-01-OT-LC-4-D</t>
+  </si>
+  <si>
+    <t>AV-CT2-01-OT-LC-4</t>
+  </si>
+  <si>
+    <t>AV-CT2-01-OT-LC-4-D</t>
+  </si>
+  <si>
+    <t>AV-ST2-01-OT-ISC-4</t>
+  </si>
+  <si>
+    <t>potentially biased by first sample sucking up mud, which would not be found in the duplicate sample once the isco sucked it up initially; ph, EC collected by Jake</t>
+  </si>
+  <si>
+    <t>AV-ST2-01-OT-ISC-4-D</t>
+  </si>
+  <si>
+    <t>AV-01-IN-GB-4</t>
+  </si>
+  <si>
+    <t>AV-01-IN-GB-4-D</t>
+  </si>
+  <si>
+    <t>BT-RVMID-01-GB-4</t>
+  </si>
+  <si>
+    <t>BT-RVA-01-GB-4</t>
+  </si>
+  <si>
+    <t>BT-RVB-01-GB-4</t>
+  </si>
+  <si>
+    <t>BT-TDR-01-GB-4</t>
+  </si>
+  <si>
+    <t>HOL-UP-01-GB-4</t>
+  </si>
+  <si>
+    <t>HOL-MID-01-GB-4</t>
+  </si>
+  <si>
+    <t>HOL-DOWN-01-GB-4</t>
+  </si>
+  <si>
+    <t>Could not read EC and pH, probably due to limited sample amount</t>
+  </si>
+  <si>
+    <t>HOL-CON-01-GB-4</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-1</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-1-D</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-3</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-5</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-7</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-7-D</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-9</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-11</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-13</t>
+  </si>
+  <si>
+    <t>UYM-03-OT-ISC-4-13-D</t>
+  </si>
+  <si>
+    <t>UYM-03-IN-LC-4</t>
+  </si>
+  <si>
+    <t>UYM-03-IN-LC-4-D</t>
+  </si>
+  <si>
+    <t>SB-03-OT-ISC-4</t>
+  </si>
+  <si>
+    <t>SB-03-OT-ISC-4-D</t>
+  </si>
+  <si>
+    <t>SCA-03-GB-4</t>
+  </si>
+  <si>
+    <t>SCA-03-GB-4-D</t>
+  </si>
+  <si>
+    <t>SCI-03-GB-4</t>
+  </si>
+  <si>
+    <t>SCI-03-GB-4-D</t>
+  </si>
+  <si>
+    <t>SCO-03-GB-4</t>
+  </si>
+  <si>
+    <t>SCO-03-GB-4-D</t>
+  </si>
+  <si>
+    <t>MOR-03-GB-4</t>
+  </si>
+  <si>
+    <t>MOR-03-GB-4-D</t>
+  </si>
+  <si>
+    <t>TR-03-GB-4</t>
+  </si>
+  <si>
+    <t>TR-03-GB-4-D</t>
+  </si>
+  <si>
+    <t>LG-02-OT-LC-4</t>
+  </si>
+  <si>
+    <t>LG-02-OT-LC-4-D</t>
+  </si>
+  <si>
+    <t>LG-02-IN-GB-4</t>
+  </si>
+  <si>
+    <t>LG-02-IN-GB-4-D</t>
   </si>
 </sst>
 </file>
@@ -450,7 +633,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +671,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -509,7 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,18 +776,16 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -909,7 +1097,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
@@ -1171,13 +1359,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B25874-14DA-4CDE-A9BC-C61EE37E0489}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:N43"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -1309,7 +1497,7 @@
         <v>75</v>
       </c>
       <c r="T2" s="12" t="b">
-        <f t="shared" ref="T2:T41" si="0">IF(F2-G2&gt;14, TRUE, FALSE)</f>
+        <f>IF(G2-F2&gt;7, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="U2" s="12" t="str">
@@ -1366,11 +1554,11 @@
         <v>75</v>
       </c>
       <c r="T3" s="12" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T3:T49" si="0">IF(G3-F3&gt;7, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="U3" s="12" t="str">
-        <f t="shared" ref="U3:U51" si="1">IF(AND(D3="Stock Solution", N3&gt;=90, N3&lt;=110), "Good", IF(AND(D3="DI", N3&gt;=-3.33, N3&lt;=3.33), "Good", IF(OR(D3&lt;&gt;"Stock Solution", D3&lt;&gt;"DI"), "", "Bad")))</f>
+        <f t="shared" ref="U3:U49" si="1">IF(AND(D3="Stock Solution", N3&gt;=90, N3&lt;=110), "Good", IF(AND(D3="DI", N3&gt;=-3.33, N3&lt;=3.33), "Good", IF(OR(D3&lt;&gt;"Stock Solution", D3&lt;&gt;"DI"), "", "Bad")))</f>
         <v/>
       </c>
       <c r="V3" s="12"/>
@@ -1433,7 +1621,7 @@
       </c>
       <c r="T4" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="12" t="str">
         <f t="shared" si="1"/>
@@ -1500,7 +1688,7 @@
       </c>
       <c r="T5" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2401,7 +2589,7 @@
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2467,7 +2655,7 @@
       </c>
       <c r="T21" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2533,7 +2721,7 @@
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2599,7 +2787,7 @@
       </c>
       <c r="T23" s="12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2638,7 +2826,7 @@
         <v>1.1975</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" ref="M24:M49" si="6">(SMALL(K24:L24,1)-J24)*1000</f>
+        <f t="shared" ref="M24:M66" si="6">(SMALL(K24:L24,1)-J24)*1000</f>
         <v>3.0000000000001137</v>
       </c>
       <c r="N24" s="14">
@@ -2805,6 +2993,9 @@
       </c>
     </row>
     <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -2865,6 +3056,9 @@
       </c>
     </row>
     <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
       <c r="B29" s="12">
         <v>4</v>
       </c>
@@ -2925,6 +3119,9 @@
       </c>
     </row>
     <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -2985,6 +3182,9 @@
       </c>
     </row>
     <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
       <c r="B31" s="12">
         <v>4</v>
       </c>
@@ -3045,6 +3245,9 @@
       </c>
     </row>
     <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
       <c r="B32" s="12">
         <v>4</v>
       </c>
@@ -3104,7 +3307,10 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
       <c r="B33" s="12">
         <v>4</v>
       </c>
@@ -3164,7 +3370,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
       <c r="B34" s="12">
         <v>4</v>
       </c>
@@ -3224,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="1:22">
       <c r="B35" s="12">
         <v>4</v>
       </c>
@@ -3272,7 +3481,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="1:22">
       <c r="B36" s="12">
         <v>5</v>
       </c>
@@ -3320,7 +3529,10 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
       <c r="B37" s="12">
         <v>5</v>
       </c>
@@ -3380,7 +3592,10 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
       <c r="B38" s="12">
         <v>5</v>
       </c>
@@ -3423,7 +3638,7 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="P38" s="12">
-        <v>0</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="Q38" s="16">
         <v>45082.486111053244</v>
@@ -3440,7 +3655,10 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
       <c r="B39" s="12">
         <v>5</v>
       </c>
@@ -3483,7 +3701,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="P39" s="12">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="Q39" s="16">
         <v>45082.486111053244</v>
@@ -3500,7 +3718,10 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
       <c r="B40" s="12">
         <v>5</v>
       </c>
@@ -3543,7 +3764,7 @@
         <v>7.72</v>
       </c>
       <c r="P40" s="12">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q40" s="16">
         <v>45082.486111053244</v>
@@ -3560,58 +3781,58 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:21" s="19" customFormat="1">
-      <c r="B41" s="18">
+    <row r="41" spans="1:22">
+      <c r="B41" s="12">
         <v>5</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41">
         <v>48</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
         <v>45078</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="6">
         <v>45081</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="6">
         <v>45085</v>
       </c>
-      <c r="I41" s="18">
-        <v>30</v>
-      </c>
-      <c r="J41" s="19">
+      <c r="I41" s="12">
+        <v>30</v>
+      </c>
+      <c r="J41">
         <v>1.2017</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41">
         <v>1.2114</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="18">
         <f t="shared" si="6"/>
         <v>9.7000000000000419</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="18">
         <f t="shared" si="7"/>
         <v>323.33333333333474</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="12">
         <v>7.51</v>
       </c>
-      <c r="P41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="21">
+      <c r="P41" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q41" s="16">
         <v>45082.486111053244</v>
       </c>
-      <c r="S41" s="18" t="s">
+      <c r="S41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="T41" s="18" t="b">
+      <c r="T41" s="12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3619,8 +3840,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:21">
+      <c r="V41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="B42" s="12">
         <v>6</v>
       </c>
@@ -3636,6 +3860,9 @@
       <c r="G42" s="6">
         <v>45089</v>
       </c>
+      <c r="H42" s="6">
+        <v>45102</v>
+      </c>
       <c r="I42" s="12">
         <v>30</v>
       </c>
@@ -3645,24 +3872,28 @@
       <c r="K42">
         <v>1.2181999999999999</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="18">
         <f>(SMALL(K42:L42,1)-J42)*1000</f>
         <v>0</v>
       </c>
-      <c r="N42" s="23">
+      <c r="N42" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S42" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T42" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U42" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
     </row>
-    <row r="43" spans="2:21">
-      <c r="B43">
+    <row r="43" spans="1:22">
+      <c r="B43" s="12">
         <v>6</v>
       </c>
       <c r="C43">
@@ -3677,32 +3908,42 @@
       <c r="G43" s="6">
         <v>45089</v>
       </c>
-      <c r="I43">
+      <c r="H43" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I43" s="12">
         <v>30</v>
       </c>
       <c r="J43">
         <v>1.2141999999999999</v>
       </c>
       <c r="K43">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="M43" s="23">
+        <v>1.2173</v>
+      </c>
+      <c r="M43" s="18">
         <f t="shared" si="6"/>
-        <v>2.8000000000001357</v>
-      </c>
-      <c r="N43" s="23">
+        <v>3.1000000000001027</v>
+      </c>
+      <c r="N43" s="18">
         <f t="shared" si="7"/>
-        <v>93.333333333337862</v>
+        <v>103.33333333333675</v>
       </c>
       <c r="S43" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T43" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U43" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
       <c r="B44" s="12">
         <v>6</v>
       </c>
@@ -3710,11 +3951,20 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45085</v>
       </c>
       <c r="G44" s="6">
         <v>45089</v>
       </c>
+      <c r="H44" s="6">
+        <v>45102</v>
+      </c>
       <c r="I44" s="12">
         <v>30</v>
       </c>
@@ -3724,12 +3974,12 @@
       <c r="K44">
         <v>1.2020999999999999</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N44" s="23">
-        <f t="shared" ref="N44:N49" si="8">M44/(I44/1000)</f>
+      <c r="N44" s="18">
+        <f t="shared" ref="N44:N85" si="8">M44/(I44/1000)</f>
         <v>0</v>
       </c>
       <c r="O44" s="12">
@@ -3743,26 +3993,42 @@
       </c>
       <c r="S44" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T44" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U44" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:21">
-      <c r="B45">
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="12">
         <v>6</v>
       </c>
       <c r="C45">
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>45085</v>
       </c>
       <c r="G45" s="6">
         <v>45089</v>
       </c>
-      <c r="I45">
+      <c r="H45" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I45" s="12">
         <v>30</v>
       </c>
       <c r="J45">
@@ -3771,11 +4037,11 @@
       <c r="K45">
         <v>1.1915</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3790,13 +4056,20 @@
       </c>
       <c r="S45" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T45" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U45" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
       <c r="B46" s="12">
         <v>6</v>
       </c>
@@ -3804,11 +4077,20 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>45085</v>
       </c>
       <c r="G46" s="6">
         <v>45089</v>
       </c>
+      <c r="H46" s="6">
+        <v>45102</v>
+      </c>
       <c r="I46" s="12">
         <v>30</v>
       </c>
@@ -3818,11 +4100,11 @@
       <c r="K46">
         <v>1.2142999999999999</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="18">
         <f t="shared" si="6"/>
         <v>0.29999999999996696</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="18">
         <f t="shared" si="8"/>
         <v>9.9999999999988987</v>
       </c>
@@ -3837,13 +4119,20 @@
       </c>
       <c r="S46" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T46" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U46" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
       <c r="B47">
         <v>6</v>
       </c>
@@ -3851,12 +4140,21 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45085</v>
       </c>
       <c r="G47" s="6">
         <v>45089</v>
       </c>
-      <c r="I47">
+      <c r="H47" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I47" s="12">
         <v>30</v>
       </c>
       <c r="J47">
@@ -3865,11 +4163,11 @@
       <c r="K47">
         <v>1.1976</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="18">
         <f t="shared" si="6"/>
         <v>0.19999999999997797</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="18">
         <f t="shared" si="8"/>
         <v>6.6666666666659324</v>
       </c>
@@ -3884,13 +4182,20 @@
       </c>
       <c r="S47" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T47" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U47" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
       <c r="B48">
         <v>6</v>
       </c>
@@ -3898,11 +4203,20 @@
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45085</v>
       </c>
       <c r="G48" s="6">
         <v>45089</v>
       </c>
+      <c r="H48" s="6">
+        <v>45102</v>
+      </c>
       <c r="I48" s="12">
         <v>30</v>
       </c>
@@ -3912,11 +4226,11 @@
       <c r="K48">
         <v>1.2203999999999999</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="18">
         <f t="shared" si="6"/>
         <v>0.29999999999996696</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="18">
         <f t="shared" si="8"/>
         <v>9.9999999999988987</v>
       </c>
@@ -3931,13 +4245,20 @@
       </c>
       <c r="S48" s="12" t="s">
         <v>104</v>
+      </c>
+      <c r="T48" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U48" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
       <c r="B49">
         <v>6</v>
       </c>
@@ -3945,12 +4266,21 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45085</v>
       </c>
       <c r="G49" s="6">
         <v>45089</v>
       </c>
-      <c r="I49">
+      <c r="H49" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I49" s="12">
         <v>30</v>
       </c>
       <c r="J49">
@@ -3959,11 +4289,11 @@
       <c r="K49">
         <v>1.2141999999999999</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3977,24 +4307,4009 @@
         <v>45091.125</v>
       </c>
       <c r="S49" s="12" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="T49" s="12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U49" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:21">
-      <c r="G50" s="6"/>
-      <c r="I50" s="12"/>
-      <c r="U50" s="12" t="str">
-        <f t="shared" si="1"/>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H50" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I50" s="12">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="K50">
+        <v>1.2154</v>
+      </c>
+      <c r="M50" s="18">
+        <f t="shared" ref="M50" si="9">(SMALL(K50:L50,1)-J50)*1000</f>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="N50" s="18">
+        <f t="shared" si="8"/>
+        <v>30.0000000000041</v>
+      </c>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G51" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H51" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I51" s="12">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="K51">
+        <v>1.21</v>
+      </c>
+      <c r="M51" s="18">
+        <f t="shared" si="6"/>
+        <v>2.8999999999999027</v>
+      </c>
+      <c r="N51" s="18">
+        <f t="shared" si="8"/>
+        <v>96.666666666663431</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T51" s="12" t="b">
+        <f t="shared" ref="T51:T114" si="10">IF(G51-F51&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="12" t="str">
+        <f t="shared" ref="U51:U114" si="11">IF(AND(D51="Stock Solution", N51&gt;=90, N51&lt;=110), "Good", IF(AND(D51="DI", N51&gt;=-3.33, N51&lt;=3.33), "Good", IF(OR(D51&lt;&gt;"Stock Solution", D51&lt;&gt;"DI"), "", "Bad")))</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G52" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H52" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I52" s="12">
+        <v>30</v>
+      </c>
+      <c r="J52">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="K52">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="M52" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T52" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G53" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H53" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I53" s="12">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>1.2239</v>
+      </c>
+      <c r="K53">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="M53" s="18">
+        <f t="shared" si="6"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N53" s="18">
+        <f t="shared" si="8"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O53" s="12">
+        <v>7.94</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T53" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="12" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:21">
-      <c r="U51" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="V53" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G54" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H54" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I54" s="12">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>1.1978</v>
+      </c>
+      <c r="K54">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="M54" s="18">
+        <f t="shared" si="6"/>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="N54" s="18">
+        <f t="shared" si="8"/>
+        <v>33.333333333337066</v>
+      </c>
+      <c r="O54" s="12">
+        <v>8.01</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T54" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V54" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G55" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H55" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I55" s="12">
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <v>1.2186999999999999</v>
+      </c>
+      <c r="K55">
+        <v>1.2209000000000001</v>
+      </c>
+      <c r="M55" s="18">
+        <f t="shared" si="6"/>
+        <v>2.2000000000002018</v>
+      </c>
+      <c r="N55" s="18">
+        <f t="shared" si="8"/>
+        <v>73.333333333340065</v>
+      </c>
+      <c r="O55" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="P55" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T55" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V55" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G56" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H56" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I56" s="12">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>1.2040999999999999</v>
+      </c>
+      <c r="K56">
+        <v>1.2060999999999999</v>
+      </c>
+      <c r="M56" s="18">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018</v>
+      </c>
+      <c r="N56" s="18">
+        <f t="shared" si="8"/>
+        <v>66.666666666666728</v>
+      </c>
+      <c r="O56" s="12">
+        <v>7.93</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T56" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V56" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G57" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H57" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I57" s="12">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>1.2016</v>
+      </c>
+      <c r="K57">
+        <v>1.2027000000000001</v>
+      </c>
+      <c r="M57" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1000000000001009</v>
+      </c>
+      <c r="N57" s="18">
+        <f t="shared" si="8"/>
+        <v>36.666666666670032</v>
+      </c>
+      <c r="O57" s="12">
+        <v>8.09</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T57" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V57" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H58" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I58" s="12">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>1.1995</v>
+      </c>
+      <c r="K58">
+        <v>1.2009000000000001</v>
+      </c>
+      <c r="M58" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4000000000000679</v>
+      </c>
+      <c r="N58" s="18">
+        <f t="shared" si="8"/>
+        <v>46.666666666668931</v>
+      </c>
+      <c r="O58" s="12">
+        <v>8.02</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T58" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V58" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G59" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H59" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I59" s="12">
+        <v>30</v>
+      </c>
+      <c r="J59">
+        <v>1.1968000000000001</v>
+      </c>
+      <c r="K59">
+        <v>1.1976</v>
+      </c>
+      <c r="M59" s="18">
+        <f t="shared" si="6"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N59" s="18">
+        <f t="shared" si="8"/>
+        <v>26.66666666666373</v>
+      </c>
+      <c r="O59" s="12">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="P59" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T59" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V59" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G60" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H60" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I60" s="12">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="K60">
+        <v>1.2091000000000001</v>
+      </c>
+      <c r="M60" s="18">
+        <f t="shared" si="6"/>
+        <v>0.60000000000015596</v>
+      </c>
+      <c r="N60" s="18">
+        <f t="shared" si="8"/>
+        <v>20.000000000005201</v>
+      </c>
+      <c r="O60" s="12">
+        <v>8.14</v>
+      </c>
+      <c r="P60" s="12">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T60" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V60" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G61" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H61" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I61" s="12">
+        <v>30</v>
+      </c>
+      <c r="J61">
+        <v>1.2202999999999999</v>
+      </c>
+      <c r="K61">
+        <v>1.2233000000000001</v>
+      </c>
+      <c r="M61" s="18">
+        <f t="shared" si="6"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="N61" s="18">
+        <f t="shared" si="8"/>
+        <v>100.00000000000379</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T61" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G62" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H62" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I62" s="12">
+        <v>30</v>
+      </c>
+      <c r="J62">
+        <v>1.2176</v>
+      </c>
+      <c r="K62">
+        <v>1.2175</v>
+      </c>
+      <c r="M62" s="18">
+        <f t="shared" si="6"/>
+        <v>-9.9999999999988987E-2</v>
+      </c>
+      <c r="N62" s="18">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333329662</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T62" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G63" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H63" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I63" s="12">
+        <v>30</v>
+      </c>
+      <c r="J63">
+        <v>1.2137</v>
+      </c>
+      <c r="K63">
+        <v>1.2791999999999999</v>
+      </c>
+      <c r="M63" s="18">
+        <f t="shared" si="6"/>
+        <v>65.499999999999886</v>
+      </c>
+      <c r="N63" s="18">
+        <f t="shared" si="8"/>
+        <v>2183.3333333333298</v>
+      </c>
+      <c r="O63" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="P63" s="12">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T63" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V63" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H64" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I64" s="12">
+        <v>30</v>
+      </c>
+      <c r="J64">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="K64">
+        <v>1.2682</v>
+      </c>
+      <c r="M64" s="18">
+        <f t="shared" si="6"/>
+        <v>63.700000000000088</v>
+      </c>
+      <c r="N64" s="18">
+        <f t="shared" si="8"/>
+        <v>2123.3333333333362</v>
+      </c>
+      <c r="O64" s="12">
+        <v>7.79</v>
+      </c>
+      <c r="P64" s="12">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T64" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V64" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G65" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H65" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I65" s="12">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="K65">
+        <v>1.2682</v>
+      </c>
+      <c r="M65" s="18">
+        <f t="shared" si="6"/>
+        <v>71.700000000000102</v>
+      </c>
+      <c r="N65" s="18">
+        <f t="shared" si="8"/>
+        <v>2390.0000000000036</v>
+      </c>
+      <c r="O65" s="12">
+        <v>7.88</v>
+      </c>
+      <c r="P65" s="12">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T65" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V65" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22">
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H66" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I66" s="12">
+        <v>30</v>
+      </c>
+      <c r="J66">
+        <v>1.2093</v>
+      </c>
+      <c r="K66">
+        <v>1.2801</v>
+      </c>
+      <c r="M66" s="18">
+        <f t="shared" si="6"/>
+        <v>70.799999999999969</v>
+      </c>
+      <c r="N66" s="18">
+        <f t="shared" si="8"/>
+        <v>2359.9999999999991</v>
+      </c>
+      <c r="O66" s="12">
+        <v>7.94</v>
+      </c>
+      <c r="P66" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T66" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V66" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G67" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H67" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I67" s="12">
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <v>1.1999</v>
+      </c>
+      <c r="K67">
+        <v>1.2383999999999999</v>
+      </c>
+      <c r="M67" s="18">
+        <f t="shared" ref="M67:M123" si="12">(SMALL(K67:L67,1)-J67)*1000</f>
+        <v>38.499999999999979</v>
+      </c>
+      <c r="N67" s="18">
+        <f t="shared" si="8"/>
+        <v>1283.3333333333326</v>
+      </c>
+      <c r="O67" s="12">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="P67" s="12">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T67" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V67" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G68" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H68" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I68" s="12">
+        <v>30</v>
+      </c>
+      <c r="J68">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="K68">
+        <v>1.2605999999999999</v>
+      </c>
+      <c r="M68" s="18">
+        <f t="shared" si="12"/>
+        <v>42.100000000000023</v>
+      </c>
+      <c r="N68" s="18">
+        <f t="shared" si="8"/>
+        <v>1403.3333333333342</v>
+      </c>
+      <c r="O68" s="12">
+        <v>8.01</v>
+      </c>
+      <c r="P68" s="12">
+        <v>0.748</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T68" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V68" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G69" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H69" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I69" s="12">
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K69">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="M69" s="18">
+        <f t="shared" si="12"/>
+        <v>2.9000000000001247</v>
+      </c>
+      <c r="N69" s="18">
+        <f t="shared" si="8"/>
+        <v>96.666666666670821</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T69" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22">
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G70" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H70" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I70" s="12">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>1.2175</v>
+      </c>
+      <c r="K70">
+        <v>1.2176</v>
+      </c>
+      <c r="M70" s="18">
+        <f t="shared" si="12"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N70" s="18">
+        <f t="shared" si="8"/>
+        <v>3.3333333333329662</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T70" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H71" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I71" s="12">
+        <v>30</v>
+      </c>
+      <c r="J71">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K71">
+        <v>1.2565999999999999</v>
+      </c>
+      <c r="M71" s="18">
+        <f t="shared" si="12"/>
+        <v>42.399999999999991</v>
+      </c>
+      <c r="N71" s="18">
+        <f t="shared" si="8"/>
+        <v>1413.333333333333</v>
+      </c>
+      <c r="O71" s="12">
+        <v>8.06</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T71" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V71" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H72" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I72" s="12">
+        <v>30</v>
+      </c>
+      <c r="J72">
+        <v>1.2242999999999999</v>
+      </c>
+      <c r="K72">
+        <v>1.2679</v>
+      </c>
+      <c r="M72" s="18">
+        <f t="shared" si="12"/>
+        <v>43.60000000000008</v>
+      </c>
+      <c r="N72" s="18">
+        <f t="shared" si="8"/>
+        <v>1453.333333333336</v>
+      </c>
+      <c r="O72" s="12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="P72" s="12">
+        <v>0.753</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T72" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V72" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H73" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I73" s="12">
+        <v>30</v>
+      </c>
+      <c r="J73">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="K73">
+        <v>1.3053999999999999</v>
+      </c>
+      <c r="M73" s="18">
+        <f t="shared" si="12"/>
+        <v>96.599999999999795</v>
+      </c>
+      <c r="N73" s="18">
+        <f t="shared" si="8"/>
+        <v>3219.9999999999932</v>
+      </c>
+      <c r="O73" s="12">
+        <v>7.93</v>
+      </c>
+      <c r="P73" s="12">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T73" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V73" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G74" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H74" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I74" s="12">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>1.2156</v>
+      </c>
+      <c r="K74">
+        <v>1.2745</v>
+      </c>
+      <c r="M74" s="18">
+        <f t="shared" si="12"/>
+        <v>58.899999999999949</v>
+      </c>
+      <c r="N74" s="18">
+        <f t="shared" si="8"/>
+        <v>1963.3333333333317</v>
+      </c>
+      <c r="O74" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="P74" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="S74" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T74" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V74" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22">
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G75" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H75" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I75" s="12">
+        <v>30</v>
+      </c>
+      <c r="J75">
+        <v>1.2085999999999999</v>
+      </c>
+      <c r="K75">
+        <v>1.2535000000000001</v>
+      </c>
+      <c r="M75" s="18">
+        <f t="shared" si="12"/>
+        <v>44.900000000000162</v>
+      </c>
+      <c r="N75" s="18">
+        <f t="shared" si="8"/>
+        <v>1496.6666666666722</v>
+      </c>
+      <c r="O75" s="12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="P75" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T75" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V75" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22">
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45092</v>
+      </c>
+      <c r="G76" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H76" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I76" s="12">
+        <v>30</v>
+      </c>
+      <c r="J76">
+        <v>1.1993</v>
+      </c>
+      <c r="K76">
+        <v>1.2432000000000001</v>
+      </c>
+      <c r="M76" s="18">
+        <f t="shared" si="12"/>
+        <v>43.900000000000048</v>
+      </c>
+      <c r="N76" s="18">
+        <f t="shared" si="8"/>
+        <v>1463.3333333333351</v>
+      </c>
+      <c r="O76" s="12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="P76" s="12">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T76" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V76" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22">
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H77" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I77" s="12">
+        <v>30</v>
+      </c>
+      <c r="J77">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="K77">
+        <v>1.2214</v>
+      </c>
+      <c r="M77" s="18">
+        <f t="shared" si="12"/>
+        <v>3.2000000000000917</v>
+      </c>
+      <c r="N77" s="18">
+        <f t="shared" si="8"/>
+        <v>106.66666666666973</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T77" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22">
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H78" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I78" s="12">
+        <v>30</v>
+      </c>
+      <c r="J78">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="K78">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="M78" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T78" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22">
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H79" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I79" s="12">
+        <v>30</v>
+      </c>
+      <c r="J79">
+        <v>1.1927000000000001</v>
+      </c>
+      <c r="K79">
+        <v>1.1934</v>
+      </c>
+      <c r="M79" s="18">
+        <f t="shared" si="12"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N79" s="18">
+        <f t="shared" si="8"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O79" s="12">
+        <v>8.69</v>
+      </c>
+      <c r="P79" s="12">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="Q79" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T79" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:22">
+      <c r="B80">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G80" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H80" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I80" s="12">
+        <v>30</v>
+      </c>
+      <c r="J80">
+        <v>1.2069000000000001</v>
+      </c>
+      <c r="K80">
+        <v>1.2074</v>
+      </c>
+      <c r="M80" s="18">
+        <f t="shared" si="12"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N80" s="18">
+        <f t="shared" si="8"/>
+        <v>16.666666666664831</v>
+      </c>
+      <c r="O80" s="12">
+        <v>8.14</v>
+      </c>
+      <c r="P80" s="12">
+        <v>0.318</v>
+      </c>
+      <c r="Q80" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T80" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:22">
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H81" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I81" s="12">
+        <v>30</v>
+      </c>
+      <c r="J81">
+        <v>1.2197</v>
+      </c>
+      <c r="K81">
+        <v>1.22</v>
+      </c>
+      <c r="M81" s="18">
+        <f t="shared" si="12"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N81" s="18">
+        <f t="shared" si="8"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O81" s="12">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="P81" s="12">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="Q81" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T81" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:22">
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G82" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H82" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I82" s="12">
+        <v>30</v>
+      </c>
+      <c r="J82">
+        <v>1.2292000000000001</v>
+      </c>
+      <c r="K82">
+        <v>1.2299</v>
+      </c>
+      <c r="M82" s="18">
+        <f t="shared" si="12"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N82" s="18">
+        <f t="shared" si="8"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O82" s="12">
+        <v>7.87</v>
+      </c>
+      <c r="P82" s="12">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q82" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T82" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:22">
+      <c r="B83">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H83" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I83" s="12">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>1.2096</v>
+      </c>
+      <c r="K83">
+        <v>1.2115</v>
+      </c>
+      <c r="M83" s="18">
+        <f t="shared" si="12"/>
+        <v>1.9000000000000128</v>
+      </c>
+      <c r="N83" s="18">
+        <f t="shared" si="8"/>
+        <v>63.333333333333762</v>
+      </c>
+      <c r="O83" s="12">
+        <v>8.07</v>
+      </c>
+      <c r="P83" s="12">
+        <v>2.37</v>
+      </c>
+      <c r="Q83" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T83" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:22">
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H84" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I84" s="12">
+        <v>30</v>
+      </c>
+      <c r="J84">
+        <v>1.2165999999999999</v>
+      </c>
+      <c r="K84">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="M84" s="18">
+        <f t="shared" si="12"/>
+        <v>1.9000000000000128</v>
+      </c>
+      <c r="N84" s="18">
+        <f t="shared" si="8"/>
+        <v>63.333333333333762</v>
+      </c>
+      <c r="O84" s="12">
+        <v>8.07</v>
+      </c>
+      <c r="P84" s="12">
+        <v>2.1309999999999998</v>
+      </c>
+      <c r="Q84" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T84" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:22">
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>79</v>
+      </c>
+      <c r="D85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H85" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I85" s="12">
+        <v>30</v>
+      </c>
+      <c r="J85">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="K85">
+        <v>1.2358</v>
+      </c>
+      <c r="M85" s="18">
+        <f t="shared" si="12"/>
+        <v>31.300000000000104</v>
+      </c>
+      <c r="N85" s="18">
+        <f t="shared" si="8"/>
+        <v>1043.3333333333369</v>
+      </c>
+      <c r="Q85" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T85" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22">
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G86" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H86" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I86" s="12">
+        <v>30</v>
+      </c>
+      <c r="J86">
+        <v>1.2138</v>
+      </c>
+      <c r="K86">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="M86" s="18">
+        <f t="shared" si="12"/>
+        <v>3.3000000000000806</v>
+      </c>
+      <c r="N86" s="18">
+        <f t="shared" ref="N86:N123" si="13">M86/(I86/1000)</f>
+        <v>110.00000000000269</v>
+      </c>
+      <c r="O86" s="12">
+        <v>7.23</v>
+      </c>
+      <c r="P86" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="Q86" s="16">
+        <v>45105.600694444445</v>
+      </c>
+      <c r="S86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T86" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:22">
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45103</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H87" s="6">
+        <v>45105</v>
+      </c>
+      <c r="I87" s="12">
+        <v>30</v>
+      </c>
+      <c r="J87">
+        <v>1.2229000000000001</v>
+      </c>
+      <c r="K87">
+        <v>1.2259</v>
+      </c>
+      <c r="M87" s="18">
+        <f t="shared" si="12"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="N87" s="18">
+        <f t="shared" si="13"/>
+        <v>99.99999999999639</v>
+      </c>
+      <c r="S87" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T87" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" ht="15">
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G88" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H88" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I88" s="12">
+        <v>30</v>
+      </c>
+      <c r="J88">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="K88">
+        <v>1.2198</v>
+      </c>
+      <c r="M88" s="18">
+        <f t="shared" si="12"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="N88" s="18">
+        <f t="shared" si="13"/>
+        <v>99.99999999999639</v>
+      </c>
+      <c r="S88" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T88" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" ht="15">
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H89" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I89" s="12">
+        <v>30</v>
+      </c>
+      <c r="J89">
+        <v>1.2277</v>
+      </c>
+      <c r="K89">
+        <v>1.2277</v>
+      </c>
+      <c r="M89" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T89" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" ht="15">
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G90" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H90" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I90" s="12">
+        <v>30</v>
+      </c>
+      <c r="J90">
+        <v>1.2183999999999999</v>
+      </c>
+      <c r="K90">
+        <v>1.2194</v>
+      </c>
+      <c r="M90" s="18">
+        <f t="shared" si="12"/>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="N90" s="18">
+        <f t="shared" si="13"/>
+        <v>33.333333333337066</v>
+      </c>
+      <c r="O90" s="12">
+        <v>8.26</v>
+      </c>
+      <c r="P90" s="12">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Q90" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T90" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:22" ht="15">
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H91" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I91" s="12">
+        <v>30</v>
+      </c>
+      <c r="J91">
+        <v>1.2125999999999999</v>
+      </c>
+      <c r="K91">
+        <v>1.2131000000000001</v>
+      </c>
+      <c r="M91" s="18">
+        <f t="shared" si="12"/>
+        <v>0.50000000000016698</v>
+      </c>
+      <c r="N91" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666672235</v>
+      </c>
+      <c r="O91" s="12">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="P91" s="12">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="Q91" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S91" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T91" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:22" ht="15">
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G92" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H92" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I92" s="12">
+        <v>30</v>
+      </c>
+      <c r="J92">
+        <v>1.2146999999999999</v>
+      </c>
+      <c r="K92">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="M92" s="18">
+        <f t="shared" si="12"/>
+        <v>0.300000000000189</v>
+      </c>
+      <c r="N92" s="18">
+        <f t="shared" si="13"/>
+        <v>10.000000000006301</v>
+      </c>
+      <c r="O92" s="12">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="P92" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="Q92" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S92" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T92" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:22" ht="15">
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H93" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I93" s="12">
+        <v>30</v>
+      </c>
+      <c r="J93">
+        <v>1.2178</v>
+      </c>
+      <c r="K93">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="M93" s="18">
+        <f t="shared" si="12"/>
+        <v>0.39999999999995595</v>
+      </c>
+      <c r="N93" s="18">
+        <f t="shared" si="13"/>
+        <v>13.333333333331865</v>
+      </c>
+      <c r="O93" s="12">
+        <v>8.16</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="Q93" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S93" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T93" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:22" ht="15">
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G94" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H94" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I94" s="12">
+        <v>30</v>
+      </c>
+      <c r="J94">
+        <v>1.2146999999999999</v>
+      </c>
+      <c r="K94">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="M94" s="18">
+        <f t="shared" si="12"/>
+        <v>0.40000000000017799</v>
+      </c>
+      <c r="N94" s="18">
+        <f t="shared" si="13"/>
+        <v>13.333333333339267</v>
+      </c>
+      <c r="O94" s="12">
+        <v>8.18</v>
+      </c>
+      <c r="P94" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="Q94" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S94" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T94" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:22" ht="15">
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G95" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H95" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I95" s="12">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="K95">
+        <v>1.2193000000000001</v>
+      </c>
+      <c r="M95" s="18">
+        <f t="shared" si="12"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N95" s="18">
+        <f t="shared" si="13"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O95" s="12">
+        <v>8.16</v>
+      </c>
+      <c r="P95" s="12">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="Q95" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S95" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T95" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:22" ht="15">
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G96" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H96" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I96" s="12">
+        <v>30</v>
+      </c>
+      <c r="J96">
+        <v>1.2165999999999999</v>
+      </c>
+      <c r="K96">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="M96" s="18">
+        <f t="shared" si="12"/>
+        <v>0.50000000000016698</v>
+      </c>
+      <c r="N96" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666672235</v>
+      </c>
+      <c r="O96" s="12">
+        <v>8.14</v>
+      </c>
+      <c r="P96" s="12">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="Q96" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S96" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T96" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="12" t="str">
+        <f>IF(AND(D96="Stock Solution", N96&gt;=90, N96&lt;=110), "Good", IF(AND(D96="DI", N96&gt;=-3.33, N96&lt;=3.33), "Good", IF(OR(D96&lt;&gt;"Stock Solution", D96&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:21" ht="15">
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G97" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H97" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I97" s="12">
+        <v>30</v>
+      </c>
+      <c r="J97">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="K97">
+        <v>1.2091000000000001</v>
+      </c>
+      <c r="M97" s="18">
+        <f t="shared" si="12"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N97" s="18">
+        <f t="shared" si="13"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O97" s="12">
+        <v>8.09</v>
+      </c>
+      <c r="P97" s="12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q97" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S97" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T97" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:21" ht="15">
+      <c r="B98">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G98" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H98" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I98" s="12">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <v>1.2329000000000001</v>
+      </c>
+      <c r="K98">
+        <v>1.2337</v>
+      </c>
+      <c r="M98" s="18">
+        <f t="shared" si="12"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N98" s="18">
+        <f t="shared" si="13"/>
+        <v>26.66666666666373</v>
+      </c>
+      <c r="O98" s="12">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="P98" s="12">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q98" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S98" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T98" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:21" ht="15">
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G99" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H99" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I99" s="12">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="K99">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="M99" s="18">
+        <f t="shared" si="12"/>
+        <v>0.70000000000014495</v>
+      </c>
+      <c r="N99" s="18">
+        <f t="shared" si="13"/>
+        <v>23.333333333338167</v>
+      </c>
+      <c r="O99" s="12">
+        <v>8.18</v>
+      </c>
+      <c r="P99" s="12">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q99" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S99" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T99" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:21" ht="15">
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G100" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H100" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I100" s="12">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>1.2174</v>
+      </c>
+      <c r="K100">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="M100" s="18">
+        <f t="shared" si="12"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="N100" s="18">
+        <f t="shared" si="13"/>
+        <v>99.99999999999639</v>
+      </c>
+      <c r="S100" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T100" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" ht="15">
+      <c r="B101">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G101" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H101" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I101" s="12">
+        <v>30</v>
+      </c>
+      <c r="J101">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="K101">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="M101" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T101" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" ht="15">
+      <c r="B102">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G102" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H102" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I102" s="12">
+        <v>30</v>
+      </c>
+      <c r="J102">
+        <v>1.2041999999999999</v>
+      </c>
+      <c r="K102">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="M102" s="18">
+        <f t="shared" si="12"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N102" s="18">
+        <f t="shared" si="13"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O102" s="12">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="P102" s="12">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="Q102" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S102" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T102" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:21" ht="15">
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="F103" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G103" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H103" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I103" s="12">
+        <v>30</v>
+      </c>
+      <c r="J103">
+        <v>1.2201</v>
+      </c>
+      <c r="K103">
+        <v>1.2205999999999999</v>
+      </c>
+      <c r="M103" s="18">
+        <f t="shared" si="12"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N103" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666664831</v>
+      </c>
+      <c r="O103" s="12">
+        <v>8.09</v>
+      </c>
+      <c r="P103" s="12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="Q103" s="16">
+        <v>45112</v>
+      </c>
+      <c r="S103" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T103" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:21" ht="15">
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G104" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H104" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I104" s="12">
+        <v>30</v>
+      </c>
+      <c r="J104">
+        <v>1.2099</v>
+      </c>
+      <c r="K104">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="M104" s="18">
+        <f t="shared" si="12"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N104" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666664831</v>
+      </c>
+      <c r="O104" s="12">
+        <v>8.33</v>
+      </c>
+      <c r="P104" s="12">
+        <v>0.373</v>
+      </c>
+      <c r="Q104" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S104" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T104" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:21" ht="15">
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G105" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H105" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I105" s="12">
+        <v>30</v>
+      </c>
+      <c r="J105">
+        <v>1.2022999999999999</v>
+      </c>
+      <c r="K105">
+        <v>1.2027000000000001</v>
+      </c>
+      <c r="M105" s="18">
+        <f t="shared" si="12"/>
+        <v>0.40000000000017799</v>
+      </c>
+      <c r="N105" s="18">
+        <f t="shared" si="13"/>
+        <v>13.333333333339267</v>
+      </c>
+      <c r="O105" s="12">
+        <v>8.35</v>
+      </c>
+      <c r="P105" s="12">
+        <v>0.373</v>
+      </c>
+      <c r="Q105" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S105" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T105" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:21" ht="15">
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G106" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H106" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I106" s="12">
+        <v>30</v>
+      </c>
+      <c r="J106">
+        <v>1.2028000000000001</v>
+      </c>
+      <c r="K106">
+        <v>1.2035</v>
+      </c>
+      <c r="M106" s="18">
+        <f t="shared" si="12"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N106" s="18">
+        <f t="shared" si="13"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O106" s="12">
+        <v>8.42</v>
+      </c>
+      <c r="P106" s="12">
+        <v>0.505</v>
+      </c>
+      <c r="Q106" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S106" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T106" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:21" ht="15">
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G107" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H107" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I107" s="12">
+        <v>30</v>
+      </c>
+      <c r="J107">
+        <v>1.1967000000000001</v>
+      </c>
+      <c r="K107">
+        <v>1.1973</v>
+      </c>
+      <c r="M107" s="18">
+        <f t="shared" si="12"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N107" s="18">
+        <f t="shared" si="13"/>
+        <v>19.999999999997797</v>
+      </c>
+      <c r="O107" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="P107" s="12">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="Q107" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S107" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T107" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:21" ht="15">
+      <c r="B108">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H108" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I108" s="12">
+        <v>30</v>
+      </c>
+      <c r="J108">
+        <v>1.2119</v>
+      </c>
+      <c r="K108">
+        <v>1.2122999999999999</v>
+      </c>
+      <c r="M108" s="18">
+        <f t="shared" si="12"/>
+        <v>0.39999999999995595</v>
+      </c>
+      <c r="N108" s="18">
+        <f t="shared" si="13"/>
+        <v>13.333333333331865</v>
+      </c>
+      <c r="O108" s="12">
+        <v>8.51</v>
+      </c>
+      <c r="P108" s="12">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="Q108" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S108" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T108" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:21" ht="15">
+      <c r="B109">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G109" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H109" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I109" s="12">
+        <v>30</v>
+      </c>
+      <c r="J109">
+        <v>1.2199</v>
+      </c>
+      <c r="K109">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="M109" s="18">
+        <f t="shared" si="12"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N109" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666664831</v>
+      </c>
+      <c r="O109" s="12">
+        <v>8.52</v>
+      </c>
+      <c r="P109" s="12">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="Q109" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S109" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T109" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:21" ht="15">
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>173</v>
+      </c>
+      <c r="F110" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G110" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H110" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I110" s="12">
+        <v>30</v>
+      </c>
+      <c r="J110">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="K110">
+        <v>1.2196</v>
+      </c>
+      <c r="M110" s="18">
+        <f t="shared" si="12"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N110" s="18">
+        <f t="shared" si="13"/>
+        <v>19.999999999997797</v>
+      </c>
+      <c r="O110" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P110" s="12">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q110" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S110" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T110" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:21" ht="15">
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>24</v>
+      </c>
+      <c r="D111" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G111" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H111" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I111" s="12">
+        <v>30</v>
+      </c>
+      <c r="J111">
+        <v>1.2179</v>
+      </c>
+      <c r="K111">
+        <v>1.2182999999999999</v>
+      </c>
+      <c r="M111" s="18">
+        <f t="shared" si="12"/>
+        <v>0.39999999999995595</v>
+      </c>
+      <c r="N111" s="18">
+        <f t="shared" si="13"/>
+        <v>13.333333333331865</v>
+      </c>
+      <c r="O111" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P111" s="12">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="Q111" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S111" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T111" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:21" ht="15">
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G112" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H112" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I112" s="12">
+        <v>30</v>
+      </c>
+      <c r="J112">
+        <v>1.2021999999999999</v>
+      </c>
+      <c r="K112">
+        <v>1.2053</v>
+      </c>
+      <c r="M112" s="18">
+        <f t="shared" si="12"/>
+        <v>3.1000000000001027</v>
+      </c>
+      <c r="N112" s="18">
+        <f t="shared" si="13"/>
+        <v>103.33333333333675</v>
+      </c>
+      <c r="S112" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T112" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="113" spans="2:21" ht="15">
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G113" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H113" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I113" s="12">
+        <v>30</v>
+      </c>
+      <c r="J113">
+        <v>1.1932</v>
+      </c>
+      <c r="K113">
+        <v>1.1933</v>
+      </c>
+      <c r="M113" s="18">
+        <f t="shared" si="12"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N113" s="18">
+        <f t="shared" si="13"/>
+        <v>3.3333333333329662</v>
+      </c>
+      <c r="S113" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T113" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:21" ht="15">
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G114" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H114" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I114" s="12">
+        <v>30</v>
+      </c>
+      <c r="J114">
+        <v>1.2116</v>
+      </c>
+      <c r="K114">
+        <v>1.2119</v>
+      </c>
+      <c r="M114" s="18">
+        <f t="shared" si="12"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N114" s="18">
+        <f t="shared" si="13"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O114" s="12">
+        <v>7.92</v>
+      </c>
+      <c r="P114" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S114" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T114" s="12" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:21" ht="15">
+      <c r="B115">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>176</v>
+      </c>
+      <c r="F115" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G115" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H115" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I115" s="12">
+        <v>30</v>
+      </c>
+      <c r="J115">
+        <v>1.1996</v>
+      </c>
+      <c r="K115">
+        <v>1.1998</v>
+      </c>
+      <c r="M115" s="18">
+        <f t="shared" si="12"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="N115" s="18">
+        <f t="shared" si="13"/>
+        <v>6.6666666666659324</v>
+      </c>
+      <c r="O115" s="12">
+        <v>7.69</v>
+      </c>
+      <c r="P115" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S115" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T115" s="12" t="b">
+        <f t="shared" ref="T115:T125" si="14">IF(G115-F115&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U115" s="12" t="str">
+        <f t="shared" ref="U115:U125" si="15">IF(AND(D115="Stock Solution", N115&gt;=90, N115&lt;=110), "Good", IF(AND(D115="DI", N115&gt;=-3.33, N115&lt;=3.33), "Good", IF(OR(D115&lt;&gt;"Stock Solution", D115&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:21" ht="15">
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G116" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H116" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I116" s="12">
+        <v>30</v>
+      </c>
+      <c r="J116">
+        <v>1.2182999999999999</v>
+      </c>
+      <c r="K116">
+        <v>1.2188000000000001</v>
+      </c>
+      <c r="M116" s="18">
+        <f t="shared" si="12"/>
+        <v>0.50000000000016698</v>
+      </c>
+      <c r="N116" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666672235</v>
+      </c>
+      <c r="O116" s="12">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="P116" s="12">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="Q116" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S116" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T116" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:21" ht="15">
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G117" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H117" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I117" s="12">
+        <v>30</v>
+      </c>
+      <c r="J117">
+        <v>1.2188000000000001</v>
+      </c>
+      <c r="K117">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="M117" s="18">
+        <f t="shared" si="12"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="N117" s="18">
+        <f t="shared" si="13"/>
+        <v>6.6666666666659324</v>
+      </c>
+      <c r="O117" s="12">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="P117" s="12">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q117" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S117" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T117" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:21" ht="15">
+      <c r="B118">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>31</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G118" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H118" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I118" s="12">
+        <v>30</v>
+      </c>
+      <c r="J118">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="K118">
+        <v>1.2175</v>
+      </c>
+      <c r="M118" s="18">
+        <f t="shared" si="12"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N118" s="18">
+        <f t="shared" si="13"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O118" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="P118" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S118" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T118" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:21" ht="15">
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G119" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H119" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I119" s="12">
+        <v>30</v>
+      </c>
+      <c r="J119">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="K119">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="M119" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O119" s="12">
+        <v>7.1</v>
+      </c>
+      <c r="P119" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S119" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T119" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:21" ht="15">
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>181</v>
+      </c>
+      <c r="F120" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G120" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H120" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I120" s="12">
+        <v>30</v>
+      </c>
+      <c r="J120">
+        <v>1.2023999999999999</v>
+      </c>
+      <c r="K120">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="M120" s="18">
+        <f t="shared" si="12"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="N120" s="18">
+        <f t="shared" si="13"/>
+        <v>6.6666666666659324</v>
+      </c>
+      <c r="O120" s="12">
+        <v>7.11</v>
+      </c>
+      <c r="P120" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S120" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T120" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:21" ht="15">
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G121" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H121" s="6">
+        <v>45118</v>
+      </c>
+      <c r="I121" s="12">
+        <v>30</v>
+      </c>
+      <c r="J121">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="K121">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="M121" s="18">
+        <f t="shared" si="12"/>
+        <v>0.50000000000016698</v>
+      </c>
+      <c r="N121" s="18">
+        <f t="shared" si="13"/>
+        <v>16.666666666672235</v>
+      </c>
+      <c r="O121" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="P121" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="16">
+        <v>45115</v>
+      </c>
+      <c r="S121" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T121" s="12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:21" ht="15">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="12"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+    </row>
+    <row r="123" spans="2:21" ht="15">
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="12"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+    </row>
+    <row r="124" spans="2:21">
+      <c r="H124" s="6"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:21">
+      <c r="H125" s="6"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="12"/>
+      <c r="U125" s="12" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -4007,15 +8322,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72DA8E6-28C6-4FBA-8CF2-04F8551A4743}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -4059,7 +8379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4102,7 +8422,7 @@
         <v>36.666666666670032</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -4145,7 +8465,7 @@
         <v>23.333333333338167</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -4180,15 +8500,15 @@
         <v>1.2137</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M6" si="0">(SMALL(K4:L4,1)-J4)*1000</f>
+        <f t="shared" ref="M4:M28" si="0">(SMALL(K4:L4,1)-J4)*1000</f>
         <v>0.59999999999993392</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N6" si="1">M4/(I4/1000)</f>
+        <f t="shared" ref="N4:N28" si="1">M4/(I4/1000)</f>
         <v>19.999999999997797</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -4231,7 +8551,7 @@
         <v>16.666666666672235</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -4272,6 +8592,945 @@
       <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>23.333333333330764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I7" s="12">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>1.2172000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.2182999999999999</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0999999999998789</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="1"/>
+        <v>36.666666666662628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I8" s="12">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>1.2161999999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.2173</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1000000000001009</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="1"/>
+        <v>36.666666666670032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I9" s="12">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>1.2281</v>
+      </c>
+      <c r="K9">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="1"/>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I10" s="12">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1.2161999999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="N10" s="18">
+        <f t="shared" si="1"/>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H11" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I11" s="12">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>1.1956</v>
+      </c>
+      <c r="K11">
+        <v>1.1959</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="1"/>
+        <v>9.9999999999988987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I12" s="12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>1.1971000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.1978</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="1"/>
+        <v>23.333333333330764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H13" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I13" s="12">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>1.2015</v>
+      </c>
+      <c r="K13">
+        <v>1.2016</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="0"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N13" s="18">
+        <f t="shared" si="1"/>
+        <v>3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H14" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I14" s="12">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>1.2314000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.2317</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="1"/>
+        <v>9.9999999999988987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I15" s="12">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="K15">
+        <v>1.2149000000000001</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.40000000000017799</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="1"/>
+        <v>13.333333333339267</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I16" s="12">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>1.1976</v>
+      </c>
+      <c r="K16">
+        <v>1.1984999999999999</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999990088</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="1"/>
+        <v>29.999999999996696</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45097</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I17" s="12">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>1.2266999999999999</v>
+      </c>
+      <c r="K17">
+        <v>1.2297</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" si="1"/>
+        <v>100.00000000000379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45097</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I18" s="12">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45097</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I19" s="12">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>1.2141</v>
+      </c>
+      <c r="K19">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="N19" s="18">
+        <f t="shared" si="1"/>
+        <v>33.333333333337066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="20">
+        <v>8</v>
+      </c>
+      <c r="C20" s="20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>45078</v>
+      </c>
+      <c r="G20" s="21">
+        <v>45098</v>
+      </c>
+      <c r="H20" s="21">
+        <v>45102</v>
+      </c>
+      <c r="I20" s="22">
+        <v>30</v>
+      </c>
+      <c r="J20" s="20">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="K20" s="20">
+        <v>1.2154</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="N20" s="23">
+        <f t="shared" si="1"/>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H21" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I21" s="12">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>1.2205999999999999</v>
+      </c>
+      <c r="K21">
+        <v>1.2212000000000001</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="0"/>
+        <v>0.60000000000015596</v>
+      </c>
+      <c r="N21" s="18">
+        <f t="shared" si="1"/>
+        <v>20.000000000005201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I22" s="12">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>1.2158</v>
+      </c>
+      <c r="K22">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999990088</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="1"/>
+        <v>29.999999999996696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H23" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I23" s="12">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>1.2175</v>
+      </c>
+      <c r="K23">
+        <v>1.2181</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="0"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="1"/>
+        <v>19.999999999997797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H24" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I24" s="12">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="K24">
+        <v>1.2173</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="0"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="1"/>
+        <v>16.666666666664831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H25" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I25" s="12">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="K25">
+        <v>1.21</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999027</v>
+      </c>
+      <c r="N25" s="18">
+        <f t="shared" si="1"/>
+        <v>96.666666666663431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H26" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I26" s="12">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="K26">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H27" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I27" s="12">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="K27">
+        <v>1.2016</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="0"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N27" s="18">
+        <f t="shared" si="1"/>
+        <v>19.999999999997797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H28" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I28" s="12">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>1.2165999999999999</v>
+      </c>
+      <c r="K28">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="0"/>
+        <v>0.40000000000017799</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" si="1"/>
+        <v>13.333333333339267</v>
       </c>
     </row>
   </sheetData>
@@ -4281,20 +9540,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD5783-6DE4-4462-AE79-C2E78620ED17}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R11"/>
+      <selection activeCell="A24" sqref="A24:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -4335,7 +9594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4374,7 +9633,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -4413,7 +9672,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -4450,7 +9709,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -4488,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -4525,7 +9784,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4562,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -4591,15 +9850,15 @@
         <v>1.1975</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" ref="L8:L11" si="2">(SMALL(J8:K8,1)-I8)*1000</f>
+        <f t="shared" ref="L8:L17" si="2">(SMALL(J8:K8,1)-I8)*1000</f>
         <v>3.0000000000001137</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" ref="M8:M11" si="3">L8/(H8/1000)</f>
+        <f t="shared" ref="M8:M17" si="3">L8/(H8/1000)</f>
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -4636,7 +9895,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4670,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4702,6 +9961,529 @@
       <c r="M11" s="14">
         <f t="shared" si="3"/>
         <v>93.333333333337862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45097</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H12" s="12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="J12">
+        <v>1.2175</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="3"/>
+        <v>100.00000000000379</v>
+      </c>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45097</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45097</v>
+      </c>
+      <c r="H13" s="12">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>1.2137</v>
+      </c>
+      <c r="J13">
+        <v>1.2137</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="12">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45081</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H14" s="12">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>1.2376</v>
+      </c>
+      <c r="J14">
+        <v>1.2406999999999999</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="2"/>
+        <v>3.0999999999998806</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>103.33333333332936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45081</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H15" s="12">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>1.216</v>
+      </c>
+      <c r="J15">
+        <v>1.216</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45081</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H16" s="12">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1.2258</v>
+      </c>
+      <c r="J16">
+        <v>1.2258</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45081</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45081</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H17" s="12">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1.2114</v>
+      </c>
+      <c r="J17">
+        <v>1.2143999999999999</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="3"/>
+        <v>99.99999999999639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45097</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H18" s="12">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>1.2266999999999999</v>
+      </c>
+      <c r="J18">
+        <v>1.2297</v>
+      </c>
+      <c r="L18" s="18">
+        <f>(SMALL(J18:K18,1)-I18)*1000</f>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="M18" s="18">
+        <f>L18/(H18/1000)</f>
+        <v>100.00000000000379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45097</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H19" s="12">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="J19">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="L19" s="18">
+        <f>(SMALL(J19:K19,1)-I19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <f>L19/(H19/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H20" s="12">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="J20">
+        <v>1.21</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" ref="L20:L25" si="4">(SMALL(J20:K20,1)-I20)*1000</f>
+        <v>2.8999999999999027</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" ref="M20:M25" si="5">L20/(H20/1000)</f>
+        <v>96.666666666663431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F21" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H21" s="12">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="J21">
+        <v>1.2269000000000001</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H22" s="12">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>1.2202999999999999</v>
+      </c>
+      <c r="J22">
+        <v>1.2233000000000001</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="4"/>
+        <v>3.0000000000001137</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="5"/>
+        <v>100.00000000000379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H23" s="12">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>1.2176</v>
+      </c>
+      <c r="J23">
+        <v>1.2175</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999988987E-2</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="5"/>
+        <v>-3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F24" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H24" s="12">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="J24">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="4"/>
+        <v>2.9000000000001247</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="5"/>
+        <v>96.666666666670821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45098</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45098</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45102</v>
+      </c>
+      <c r="H25" s="12">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>1.2175</v>
+      </c>
+      <c r="J25">
+        <v>1.2176</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="4"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3333333333329662</v>
       </c>
     </row>
   </sheetData>
@@ -4711,6 +10493,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678F2DA36292A241BB6B602A04ACAAD9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f29c55d71e5194ed6e3f8d2e42b3896">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="167cb1e9-24b5-43e0-9f5d-14a54474cc90" xmlns:ns3="fbf6f0f6-9634-473c-8838-2f74fc79f714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f5c23ad112b6ffa0a8d90034e5b40c7" ns2:_="" ns3:_="">
     <xsd:import namespace="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
@@ -4953,19 +10744,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}"/>
 </file>
--- a/TSS/TSS_Master_2023.xlsx
+++ b/TSS/TSS_Master_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate.sharepoint.com/sites/AWQP_Sharepoint/Shared Documents/Water_Quality_Project/Research/Edge of Field Monitoring and Data/TSS General/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molly\Documents\GitHub\ALS-Data-Cleaning-Tool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD1C7A6-C9CC-4F78-9918-6D0985DF85E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D5180B8-A24B-42E9-9F0F-1CF817DAA184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10516" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="207">
   <si>
     <t>Column Name</t>
   </si>
@@ -624,6 +624,78 @@
   </si>
   <si>
     <t>LG-02-IN-GB-4-D</t>
+  </si>
+  <si>
+    <t>K-MT1-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-CT1-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-MT2-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-MT2-01-GBH-4-D</t>
+  </si>
+  <si>
+    <t>K-ST1-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-ST2-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-ST1-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-CT2-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-ST2-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-CT2-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-INF-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-MT2-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-MT1-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-CT1-01-ISC-4</t>
+  </si>
+  <si>
+    <t>K-MT1-01-GBH-4</t>
+  </si>
+  <si>
+    <t>K-ST2-01-ISC-4</t>
+  </si>
+  <si>
+    <t>K-INF-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-ST1-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-CT1-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-CT2-01-GB-4</t>
+  </si>
+  <si>
+    <t>K-MT1-01-GBH-4-D</t>
+  </si>
+  <si>
+    <t>K-MT2-01-LC-4</t>
+  </si>
+  <si>
+    <t>K-ST1-01-ISC-4</t>
+  </si>
+  <si>
+    <t>K-ST2-01-GB-4</t>
   </si>
 </sst>
 </file>
@@ -633,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,15 +1169,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1208,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1231,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1266,7 +1338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1347,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1300,7 +1372,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1308,7 +1380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1316,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1324,19 +1396,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1344,7 +1416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1359,29 +1431,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B25874-14DA-4CDE-A9BC-C61EE37E0489}">
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:N147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" style="12"/>
+    <col min="16" max="16" width="10.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
       <c r="B2" s="12">
         <v>1</v>
@@ -1506,7 +1578,7 @@
       </c>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="12">
         <v>1</v>
@@ -1563,7 +1635,7 @@
       </c>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>77</v>
       </c>
@@ -1631,7 +1703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
@@ -1698,7 +1770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>81</v>
       </c>
@@ -1763,7 +1835,7 @@
       </c>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -1826,7 +1898,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>81</v>
       </c>
@@ -1892,7 +1964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>81</v>
       </c>
@@ -1958,7 +2030,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
@@ -2024,7 +2096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>81</v>
       </c>
@@ -2088,7 +2160,7 @@
       </c>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
@@ -2151,7 +2223,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -2214,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>81</v>
       </c>
@@ -2277,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>81</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B16" s="12">
         <v>2</v>
       </c>
@@ -2388,7 +2460,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B17" s="12">
         <v>2</v>
       </c>
@@ -2437,7 +2509,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -2485,7 +2557,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B19" s="12">
         <v>3</v>
       </c>
@@ -2533,7 +2605,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2599,7 +2671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -2665,7 +2737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -2731,7 +2803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2797,7 +2869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B24" s="12">
         <v>3</v>
       </c>
@@ -2845,7 +2917,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B25" s="12">
         <v>3</v>
       </c>
@@ -2893,7 +2965,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B26" s="12">
         <v>4</v>
       </c>
@@ -2941,7 +3013,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B27" s="12">
         <v>4</v>
       </c>
@@ -2992,7 +3064,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3055,7 +3127,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3118,7 +3190,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3181,7 +3253,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3244,7 +3316,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -3307,7 +3379,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -3370,7 +3442,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -3433,7 +3505,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B35" s="12">
         <v>4</v>
       </c>
@@ -3481,7 +3553,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B36" s="12">
         <v>5</v>
       </c>
@@ -3529,7 +3601,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3592,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3655,7 +3727,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3790,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3781,7 +3853,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B41" s="12">
         <v>5</v>
       </c>
@@ -3844,7 +3916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B42" s="12">
         <v>6</v>
       </c>
@@ -3892,7 +3964,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B43" s="12">
         <v>6</v>
       </c>
@@ -3940,7 +4012,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -4003,7 +4075,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -4066,7 +4138,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -4129,7 +4201,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -4192,7 +4264,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -4255,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -4318,7 +4390,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -4364,7 +4436,7 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>9</v>
       </c>
@@ -4412,7 +4484,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>9</v>
       </c>
@@ -4460,7 +4532,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>9</v>
       </c>
@@ -4517,7 +4589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>9</v>
       </c>
@@ -4574,7 +4646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>9</v>
       </c>
@@ -4631,7 +4703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>9</v>
       </c>
@@ -4688,7 +4760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>9</v>
       </c>
@@ -4745,7 +4817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>9</v>
       </c>
@@ -4802,7 +4874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>9</v>
       </c>
@@ -4859,7 +4931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>9</v>
       </c>
@@ -4916,7 +4988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>9</v>
       </c>
@@ -4964,7 +5036,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>9</v>
       </c>
@@ -5012,7 +5084,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>9</v>
       </c>
@@ -5069,7 +5141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>9</v>
       </c>
@@ -5126,7 +5198,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>9</v>
       </c>
@@ -5183,7 +5255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>9</v>
       </c>
@@ -5240,7 +5312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>9</v>
       </c>
@@ -5269,7 +5341,7 @@
         <v>1.2383999999999999</v>
       </c>
       <c r="M67" s="18">
-        <f t="shared" ref="M67:M123" si="12">(SMALL(K67:L67,1)-J67)*1000</f>
+        <f t="shared" ref="M67:M130" si="12">(SMALL(K67:L67,1)-J67)*1000</f>
         <v>38.499999999999979</v>
       </c>
       <c r="N67" s="18">
@@ -5297,7 +5369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>9</v>
       </c>
@@ -5354,7 +5426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>10</v>
       </c>
@@ -5402,7 +5474,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>10</v>
       </c>
@@ -5450,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>10</v>
       </c>
@@ -5507,7 +5579,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>10</v>
       </c>
@@ -5564,7 +5636,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>10</v>
       </c>
@@ -5621,7 +5693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>10</v>
       </c>
@@ -5678,7 +5750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>10</v>
       </c>
@@ -5735,7 +5807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>10</v>
       </c>
@@ -5792,7 +5864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>11</v>
       </c>
@@ -5840,7 +5912,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>11</v>
       </c>
@@ -5888,7 +5960,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>11</v>
       </c>
@@ -5945,7 +6017,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>11</v>
       </c>
@@ -6002,7 +6074,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>11</v>
       </c>
@@ -6059,7 +6131,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>11</v>
       </c>
@@ -6116,7 +6188,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>11</v>
       </c>
@@ -6173,7 +6245,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:22">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>11</v>
       </c>
@@ -6230,7 +6302,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>11</v>
       </c>
@@ -6284,7 +6356,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>11</v>
       </c>
@@ -6317,7 +6389,7 @@
         <v>3.3000000000000806</v>
       </c>
       <c r="N86" s="18">
-        <f t="shared" ref="N86:N123" si="13">M86/(I86/1000)</f>
+        <f t="shared" ref="N86:N149" si="13">M86/(I86/1000)</f>
         <v>110.00000000000269</v>
       </c>
       <c r="O86" s="12">
@@ -6341,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:22">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>11</v>
       </c>
@@ -6389,7 +6461,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="88" spans="2:22" ht="15">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>12</v>
       </c>
@@ -6437,7 +6509,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="15">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>12</v>
       </c>
@@ -6485,7 +6557,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="15">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>12</v>
       </c>
@@ -6542,7 +6614,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="15">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>12</v>
       </c>
@@ -6599,7 +6671,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="15">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>12</v>
       </c>
@@ -6656,7 +6728,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="15">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>12</v>
       </c>
@@ -6713,7 +6785,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="15">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>12</v>
       </c>
@@ -6770,7 +6842,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:22" ht="15">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>12</v>
       </c>
@@ -6827,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:22" ht="15">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>12</v>
       </c>
@@ -6884,7 +6956,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:21" ht="15">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>12</v>
       </c>
@@ -6941,7 +7013,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:21" ht="15">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>12</v>
       </c>
@@ -6998,7 +7070,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:21" ht="15">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>12</v>
       </c>
@@ -7055,7 +7127,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:21" ht="15">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>13</v>
       </c>
@@ -7103,7 +7175,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="101" spans="2:21" ht="15">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>13</v>
       </c>
@@ -7151,7 +7223,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="102" spans="2:21" ht="15">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>13</v>
       </c>
@@ -7208,7 +7280,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:21" ht="15">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>13</v>
       </c>
@@ -7265,7 +7337,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:21" ht="15">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>13</v>
       </c>
@@ -7322,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:21" ht="15">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>13</v>
       </c>
@@ -7379,7 +7451,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:21" ht="15">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>13</v>
       </c>
@@ -7436,7 +7508,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:21" ht="15">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>13</v>
       </c>
@@ -7493,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:21" ht="15">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>13</v>
       </c>
@@ -7550,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:21" ht="15">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>13</v>
       </c>
@@ -7607,7 +7679,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:21" ht="15">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B110">
         <v>13</v>
       </c>
@@ -7664,7 +7736,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:21" ht="15">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B111">
         <v>13</v>
       </c>
@@ -7721,7 +7793,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:21" ht="15">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B112">
         <v>14</v>
       </c>
@@ -7769,7 +7841,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="113" spans="2:21" ht="15">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B113">
         <v>14</v>
       </c>
@@ -7817,7 +7889,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:21" ht="15">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B114">
         <v>14</v>
       </c>
@@ -7874,7 +7946,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:21" ht="15">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B115">
         <v>14</v>
       </c>
@@ -7923,15 +7995,15 @@
         <v>124</v>
       </c>
       <c r="T115" s="12" t="b">
-        <f t="shared" ref="T115:T125" si="14">IF(G115-F115&gt;7, TRUE, FALSE)</f>
+        <f t="shared" ref="T115:T121" si="14">IF(G115-F115&gt;7, TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="U115" s="12" t="str">
-        <f t="shared" ref="U115:U125" si="15">IF(AND(D115="Stock Solution", N115&gt;=90, N115&lt;=110), "Good", IF(AND(D115="DI", N115&gt;=-3.33, N115&lt;=3.33), "Good", IF(OR(D115&lt;&gt;"Stock Solution", D115&lt;&gt;"DI"), "", "Bad")))</f>
+        <f t="shared" ref="U115:U145" si="15">IF(AND(D115="Stock Solution", N115&gt;=90, N115&lt;=110), "Good", IF(AND(D115="DI", N115&gt;=-3.33, N115&lt;=3.33), "Good", IF(OR(D115&lt;&gt;"Stock Solution", D115&lt;&gt;"DI"), "", "Bad")))</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:21" ht="15">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B116">
         <v>14</v>
       </c>
@@ -7988,7 +8060,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:21" ht="15">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B117">
         <v>14</v>
       </c>
@@ -8045,7 +8117,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:21" ht="15">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B118">
         <v>14</v>
       </c>
@@ -8102,7 +8174,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:21" ht="15">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B119">
         <v>14</v>
       </c>
@@ -8159,7 +8231,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:21" ht="15">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B120">
         <v>14</v>
       </c>
@@ -8216,7 +8288,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:21" ht="15">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B121">
         <v>14</v>
       </c>
@@ -8273,30 +8345,128 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:21" ht="15">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="12"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G122" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H122" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I122" s="12">
+        <v>30</v>
+      </c>
+      <c r="J122">
+        <v>1.2007000000000001</v>
+      </c>
+      <c r="K122">
+        <v>1.2037</v>
+      </c>
+      <c r="M122" s="18">
+        <f t="shared" si="12"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="N122" s="18">
+        <f t="shared" si="13"/>
+        <v>99.99999999999639</v>
+      </c>
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
-      <c r="U122" s="12"/>
-    </row>
-    <row r="123" spans="2:21" ht="15">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="12"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
+      <c r="U122" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="123" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>76</v>
+      </c>
+      <c r="F123" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G123" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H123" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I123" s="12">
+        <v>30</v>
+      </c>
+      <c r="J123">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K123">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="M123" s="18">
+        <f t="shared" si="12"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N123" s="18">
+        <f t="shared" si="13"/>
+        <v>3.3333333333329662</v>
+      </c>
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
-      <c r="U123" s="12"/>
-    </row>
-    <row r="124" spans="2:21">
-      <c r="H124" s="6"/>
+      <c r="U123" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>42</v>
+      </c>
+      <c r="D124" t="s">
+        <v>183</v>
+      </c>
+      <c r="F124" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G124" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H124" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I124" s="12">
+        <v>30</v>
+      </c>
+      <c r="J124">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="K124">
+        <v>1.2359</v>
+      </c>
+      <c r="M124" s="18">
+        <f t="shared" si="12"/>
+        <v>10.699999999999932</v>
+      </c>
+      <c r="N124" s="18">
+        <f t="shared" si="13"/>
+        <v>356.66666666666441</v>
+      </c>
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
       <c r="U124" s="12" t="str">
@@ -8304,14 +8474,1097 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:21">
-      <c r="H125" s="6"/>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>43</v>
+      </c>
+      <c r="D125" t="s">
+        <v>184</v>
+      </c>
+      <c r="F125" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G125" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H125" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I125" s="12">
+        <v>30</v>
+      </c>
+      <c r="J125">
+        <v>1.1935</v>
+      </c>
+      <c r="K125">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="M125" s="18">
+        <f t="shared" si="12"/>
+        <v>21.099999999999895</v>
+      </c>
+      <c r="N125" s="18">
+        <f t="shared" si="13"/>
+        <v>703.33333333332985</v>
+      </c>
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
       <c r="U125" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>44</v>
+      </c>
+      <c r="D126" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G126" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H126" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I126" s="12">
+        <v>30</v>
+      </c>
+      <c r="J126">
+        <v>1.2055</v>
+      </c>
+      <c r="K126">
+        <v>1.2323</v>
+      </c>
+      <c r="M126" s="18">
+        <f t="shared" si="12"/>
+        <v>26.799999999999933</v>
+      </c>
+      <c r="N126" s="18">
+        <f t="shared" si="13"/>
+        <v>893.3333333333311</v>
+      </c>
+      <c r="U126" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G127" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H127" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I127" s="12">
+        <v>30</v>
+      </c>
+      <c r="J127">
+        <v>1.2148000000000001</v>
+      </c>
+      <c r="K127">
+        <v>1.2423999999999999</v>
+      </c>
+      <c r="M127" s="18">
+        <f t="shared" si="12"/>
+        <v>27.599999999999845</v>
+      </c>
+      <c r="N127" s="18">
+        <f t="shared" si="13"/>
+        <v>919.99999999999488</v>
+      </c>
+      <c r="U127" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>15</v>
+      </c>
+      <c r="C128">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G128" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H128" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I128" s="12">
+        <v>30</v>
+      </c>
+      <c r="J128">
+        <v>1.2117</v>
+      </c>
+      <c r="K128">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="M128" s="18">
+        <f t="shared" si="12"/>
+        <v>13.200000000000101</v>
+      </c>
+      <c r="N128" s="18">
+        <f t="shared" si="13"/>
+        <v>440.00000000000335</v>
+      </c>
+      <c r="U128" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>188</v>
+      </c>
+      <c r="F129" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G129" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H129" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I129" s="12">
+        <v>30</v>
+      </c>
+      <c r="J129">
+        <v>1.2094</v>
+      </c>
+      <c r="K129">
+        <v>1.2573000000000001</v>
+      </c>
+      <c r="M129" s="18">
+        <f t="shared" si="12"/>
+        <v>47.900000000000055</v>
+      </c>
+      <c r="N129" s="18">
+        <f t="shared" si="13"/>
+        <v>1596.6666666666686</v>
+      </c>
+      <c r="U129" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>48</v>
+      </c>
+      <c r="D130" t="s">
+        <v>189</v>
+      </c>
+      <c r="F130" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G130" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H130" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I130" s="12">
+        <v>30</v>
+      </c>
+      <c r="J130">
+        <v>1.2081999999999999</v>
+      </c>
+      <c r="K130">
+        <v>1.2235</v>
+      </c>
+      <c r="M130" s="18">
+        <f t="shared" si="12"/>
+        <v>15.300000000000091</v>
+      </c>
+      <c r="N130" s="18">
+        <f t="shared" si="13"/>
+        <v>510.00000000000307</v>
+      </c>
+      <c r="U130" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>15</v>
+      </c>
+      <c r="C131">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>190</v>
+      </c>
+      <c r="F131" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G131" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H131" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I131" s="12">
+        <v>30</v>
+      </c>
+      <c r="J131">
+        <v>1.2121999999999999</v>
+      </c>
+      <c r="K131">
+        <v>1.2496</v>
+      </c>
+      <c r="M131" s="18">
+        <f t="shared" ref="M131:M151" si="16">(SMALL(K131:L131,1)-J131)*1000</f>
+        <v>37.400000000000098</v>
+      </c>
+      <c r="N131" s="18">
+        <f t="shared" si="13"/>
+        <v>1246.6666666666699</v>
+      </c>
+      <c r="U131" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132" t="s">
+        <v>191</v>
+      </c>
+      <c r="F132" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G132" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H132" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I132" s="12">
+        <v>30</v>
+      </c>
+      <c r="J132">
+        <v>1.1988000000000001</v>
+      </c>
+      <c r="K132">
+        <v>1.3067</v>
+      </c>
+      <c r="M132" s="18">
+        <f t="shared" si="16"/>
+        <v>107.89999999999989</v>
+      </c>
+      <c r="N132" s="18">
+        <f t="shared" si="13"/>
+        <v>3596.6666666666633</v>
+      </c>
+      <c r="U132" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>51</v>
+      </c>
+      <c r="D133" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G133" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H133" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I133" s="12">
+        <v>30</v>
+      </c>
+      <c r="J133">
+        <v>1.2053</v>
+      </c>
+      <c r="K133">
+        <v>1.2663</v>
+      </c>
+      <c r="M133" s="18">
+        <f t="shared" si="16"/>
+        <v>60.999999999999943</v>
+      </c>
+      <c r="N133" s="18">
+        <f t="shared" si="13"/>
+        <v>2033.3333333333314</v>
+      </c>
+      <c r="U133" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>52</v>
+      </c>
+      <c r="D134" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G134" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H134" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I134" s="12">
+        <v>30</v>
+      </c>
+      <c r="J134">
+        <v>1.204</v>
+      </c>
+      <c r="K134">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="M134" s="18">
+        <f t="shared" si="16"/>
+        <v>3.1000000000001027</v>
+      </c>
+      <c r="N134" s="18">
+        <f t="shared" si="13"/>
+        <v>103.33333333333675</v>
+      </c>
+      <c r="U134" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>53</v>
+      </c>
+      <c r="D135" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G135" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H135" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I135" s="12">
+        <v>30</v>
+      </c>
+      <c r="J135">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="K135">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="M135" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>54</v>
+      </c>
+      <c r="D136" t="s">
+        <v>193</v>
+      </c>
+      <c r="F136" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G136" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H136" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I136" s="12">
+        <v>30</v>
+      </c>
+      <c r="J136">
+        <v>1.2331000000000001</v>
+      </c>
+      <c r="K136">
+        <v>1.2341</v>
+      </c>
+      <c r="M136" s="18">
+        <f t="shared" si="16"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="N136" s="18">
+        <f t="shared" si="13"/>
+        <v>33.333333333329662</v>
+      </c>
+      <c r="U136" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G137" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H137" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I137" s="12">
+        <v>30</v>
+      </c>
+      <c r="J137">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="K137">
+        <v>1.2582</v>
+      </c>
+      <c r="M137" s="18">
+        <f t="shared" si="16"/>
+        <v>31.80000000000005</v>
+      </c>
+      <c r="N137" s="18">
+        <f t="shared" si="13"/>
+        <v>1060.0000000000018</v>
+      </c>
+      <c r="U137" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138">
+        <v>56</v>
+      </c>
+      <c r="D138" t="s">
+        <v>195</v>
+      </c>
+      <c r="F138" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G138" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H138" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I138" s="12">
+        <v>30</v>
+      </c>
+      <c r="J138">
+        <v>1.1938</v>
+      </c>
+      <c r="K138">
+        <v>1.2098</v>
+      </c>
+      <c r="M138" s="18">
+        <f t="shared" si="16"/>
+        <v>16.000000000000014</v>
+      </c>
+      <c r="N138" s="18">
+        <f t="shared" si="13"/>
+        <v>533.33333333333383</v>
+      </c>
+      <c r="U138" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>57</v>
+      </c>
+      <c r="D139" t="s">
+        <v>196</v>
+      </c>
+      <c r="F139" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G139" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H139" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I139" s="12">
+        <v>30</v>
+      </c>
+      <c r="J139">
+        <v>1.2201</v>
+      </c>
+      <c r="K139">
+        <v>1.2445999999999999</v>
+      </c>
+      <c r="M139" s="18">
+        <f t="shared" si="16"/>
+        <v>24.499999999999964</v>
+      </c>
+      <c r="N139" s="18">
+        <f t="shared" si="13"/>
+        <v>816.66666666666549</v>
+      </c>
+      <c r="U139" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>58</v>
+      </c>
+      <c r="D140" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G140" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H140" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I140" s="12">
+        <v>30</v>
+      </c>
+      <c r="J140">
+        <v>1.2251000000000001</v>
+      </c>
+      <c r="K140">
+        <v>1.2293000000000001</v>
+      </c>
+      <c r="M140" s="18">
+        <f t="shared" si="16"/>
+        <v>4.1999999999999815</v>
+      </c>
+      <c r="N140" s="18">
+        <f t="shared" si="13"/>
+        <v>139.9999999999994</v>
+      </c>
+      <c r="U140" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>59</v>
+      </c>
+      <c r="D141" t="s">
+        <v>198</v>
+      </c>
+      <c r="F141" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G141" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H141" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I141" s="12">
+        <v>30</v>
+      </c>
+      <c r="J141">
+        <v>1.2072000000000001</v>
+      </c>
+      <c r="K141">
+        <v>1.2576000000000001</v>
+      </c>
+      <c r="M141" s="18">
+        <f t="shared" si="16"/>
+        <v>50.4</v>
+      </c>
+      <c r="N141" s="18">
+        <f t="shared" si="13"/>
+        <v>1680</v>
+      </c>
+      <c r="U141" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+      <c r="D142" t="s">
+        <v>199</v>
+      </c>
+      <c r="F142" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G142" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H142" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I142" s="12">
+        <v>30</v>
+      </c>
+      <c r="J142">
+        <v>1.222</v>
+      </c>
+      <c r="K142">
+        <v>1.2234</v>
+      </c>
+      <c r="M142" s="18">
+        <f t="shared" si="16"/>
+        <v>1.4000000000000679</v>
+      </c>
+      <c r="N142" s="18">
+        <f t="shared" si="13"/>
+        <v>46.666666666668931</v>
+      </c>
+      <c r="U142" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>200</v>
+      </c>
+      <c r="F143" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G143" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H143" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I143" s="12">
+        <v>30</v>
+      </c>
+      <c r="J143">
+        <v>1.2129000000000001</v>
+      </c>
+      <c r="K143">
+        <v>1.2293000000000001</v>
+      </c>
+      <c r="M143" s="18">
+        <f t="shared" si="16"/>
+        <v>16.39999999999997</v>
+      </c>
+      <c r="N143" s="18">
+        <f t="shared" si="13"/>
+        <v>546.66666666666572</v>
+      </c>
+      <c r="U143" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>201</v>
+      </c>
+      <c r="F144" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G144" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H144" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I144" s="12">
+        <v>30</v>
+      </c>
+      <c r="J144">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="K144">
+        <v>1.2352000000000001</v>
+      </c>
+      <c r="M144" s="18">
+        <f t="shared" si="16"/>
+        <v>18.500000000000185</v>
+      </c>
+      <c r="N144" s="18">
+        <f t="shared" si="13"/>
+        <v>616.66666666667288</v>
+      </c>
+      <c r="U144" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F145" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G145" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H145" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I145" s="12">
+        <v>30</v>
+      </c>
+      <c r="J145">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="K145">
+        <v>1.2572000000000001</v>
+      </c>
+      <c r="M145" s="18">
+        <f t="shared" si="16"/>
+        <v>42.200000000000017</v>
+      </c>
+      <c r="N145" s="18">
+        <f t="shared" si="13"/>
+        <v>1406.6666666666672</v>
+      </c>
+      <c r="U145" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B146">
+        <v>17</v>
+      </c>
+      <c r="C146">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G146" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H146" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I146" s="12">
+        <v>30</v>
+      </c>
+      <c r="J146">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="K146">
+        <v>1.2201</v>
+      </c>
+      <c r="M146" s="18">
+        <f t="shared" si="16"/>
+        <v>3.0999999999998806</v>
+      </c>
+      <c r="N146" s="18">
+        <f t="shared" si="13"/>
+        <v>103.33333333332936</v>
+      </c>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+      <c r="D147" t="s">
+        <v>76</v>
+      </c>
+      <c r="F147" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G147" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H147" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I147" s="12">
+        <v>30</v>
+      </c>
+      <c r="J147">
+        <v>1.2178</v>
+      </c>
+      <c r="K147">
+        <v>1.2178</v>
+      </c>
+      <c r="M147" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>203</v>
+      </c>
+      <c r="F148" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G148" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H148" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I148" s="12">
+        <v>30</v>
+      </c>
+      <c r="J148">
+        <v>1.2012</v>
+      </c>
+      <c r="K148">
+        <v>1.2126999999999999</v>
+      </c>
+      <c r="M148" s="18">
+        <f t="shared" si="16"/>
+        <v>11.499999999999844</v>
+      </c>
+      <c r="N148" s="18">
+        <f t="shared" si="13"/>
+        <v>383.33333333332814</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149">
+        <v>33</v>
+      </c>
+      <c r="D149" t="s">
+        <v>204</v>
+      </c>
+      <c r="F149" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G149" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H149" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I149" s="12">
+        <v>30</v>
+      </c>
+      <c r="J149">
+        <v>1.2047000000000001</v>
+      </c>
+      <c r="K149">
+        <v>1.2516</v>
+      </c>
+      <c r="M149" s="18">
+        <f t="shared" si="16"/>
+        <v>46.899999999999942</v>
+      </c>
+      <c r="N149" s="18">
+        <f t="shared" si="13"/>
+        <v>1563.3333333333314</v>
+      </c>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B150">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G150" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H150" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I150" s="12">
+        <v>30</v>
+      </c>
+      <c r="J150">
+        <v>1.2148000000000001</v>
+      </c>
+      <c r="K150">
+        <v>1.2714000000000001</v>
+      </c>
+      <c r="M150" s="18">
+        <f t="shared" si="16"/>
+        <v>56.59999999999998</v>
+      </c>
+      <c r="N150" s="18">
+        <f t="shared" ref="N150:N151" si="17">M150/(I150/1000)</f>
+        <v>1886.6666666666661</v>
+      </c>
+    </row>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="B151">
+        <v>17</v>
+      </c>
+      <c r="C151">
+        <v>35</v>
+      </c>
+      <c r="D151" t="s">
+        <v>206</v>
+      </c>
+      <c r="F151" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G151" s="6">
+        <v>45126</v>
+      </c>
+      <c r="H151" s="6">
+        <v>45128</v>
+      </c>
+      <c r="I151" s="12">
+        <v>30</v>
+      </c>
+      <c r="J151">
+        <v>1.2279</v>
+      </c>
+      <c r="K151">
+        <v>1.2714000000000001</v>
+      </c>
+      <c r="M151" s="18">
+        <f t="shared" si="16"/>
+        <v>43.500000000000092</v>
+      </c>
+      <c r="N151" s="18">
+        <f t="shared" si="17"/>
+        <v>1450.0000000000032</v>
+      </c>
+    </row>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.45">
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="I152" s="12"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8322,20 +9575,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72DA8E6-28C6-4FBA-8CF2-04F8551A4743}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -8379,7 +9633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -8387,10 +9641,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -8408,21 +9662,21 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>1.2146999999999999</v>
+        <v>1.1921999999999999</v>
       </c>
       <c r="K2">
-        <v>1.2158</v>
+        <v>1.1929000000000001</v>
       </c>
       <c r="M2" s="14">
         <f>(SMALL(K2:L2,1)-J2)*1000</f>
-        <v>1.1000000000001009</v>
+        <v>0.70000000000014495</v>
       </c>
       <c r="N2" s="14">
         <f>M2/(I2/1000)</f>
-        <v>36.666666666670032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>23.333333333338167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -8430,42 +9684,42 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>102</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>45058</v>
       </c>
       <c r="G3" s="6">
-        <v>45067</v>
+        <v>45070</v>
       </c>
       <c r="H3" s="6">
-        <v>45068</v>
+        <v>45071</v>
       </c>
       <c r="I3" s="12">
         <v>30</v>
       </c>
       <c r="J3">
-        <v>1.1921999999999999</v>
+        <v>1.1861999999999999</v>
       </c>
       <c r="K3">
-        <v>1.1929000000000001</v>
+        <v>1.1867000000000001</v>
       </c>
       <c r="M3" s="14">
-        <f>(SMALL(K3:L3,1)-J3)*1000</f>
-        <v>0.70000000000014495</v>
+        <f t="shared" ref="M3" si="0">(SMALL(K3:L3,1)-J3)*1000</f>
+        <v>0.50000000000016698</v>
       </c>
       <c r="N3" s="14">
-        <f>M3/(I3/1000)</f>
-        <v>23.333333333338167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <f t="shared" ref="N3" si="1">M3/(I3/1000)</f>
+        <v>16.666666666672235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -8473,42 +9727,42 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>100</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <v>45058</v>
       </c>
       <c r="G4" s="6">
-        <v>45070</v>
+        <v>45067</v>
       </c>
       <c r="H4" s="6">
-        <v>45071</v>
+        <v>45068</v>
       </c>
       <c r="I4" s="12">
         <v>30</v>
       </c>
       <c r="J4">
-        <v>1.2131000000000001</v>
+        <v>1.2146999999999999</v>
       </c>
       <c r="K4">
-        <v>1.2137</v>
+        <v>1.2158</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M28" si="0">(SMALL(K4:L4,1)-J4)*1000</f>
-        <v>0.59999999999993392</v>
+        <f>(SMALL(K4:L4,1)-J4)*1000</f>
+        <v>1.1000000000001009</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" ref="N4:N28" si="1">M4/(I4/1000)</f>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <f>M4/(I4/1000)</f>
+        <v>36.666666666670032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -8516,10 +9770,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -8537,21 +9791,21 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>1.1861999999999999</v>
+        <v>1.2131000000000001</v>
       </c>
       <c r="K5">
-        <v>1.1867000000000001</v>
+        <v>1.2137</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.50000000000016698</v>
+        <f t="shared" ref="M5:M9" si="2">(SMALL(K5:L5,1)-J5)*1000</f>
+        <v>0.59999999999993392</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="1"/>
-        <v>16.666666666672235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <f t="shared" ref="N5:N9" si="3">M5/(I5/1000)</f>
+        <v>19.999999999997797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -8586,58 +9840,78 @@
         <v>1.2138</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69999999999992291</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23.333333333330764</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" s="12">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>103</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <v>45078</v>
       </c>
       <c r="G7" s="6">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="H7" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I7" s="12">
         <v>30</v>
       </c>
       <c r="J7">
-        <v>1.2172000000000001</v>
+        <v>1.2096</v>
       </c>
       <c r="K7">
-        <v>1.2182999999999999</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="0"/>
-        <v>1.0999999999998789</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="1"/>
-        <v>36.666666666662628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>1.2105999999999999</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.99999999999988987</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="3"/>
+        <v>33.333333333329662</v>
+      </c>
+      <c r="O7" s="12">
+        <v>8.18</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>45082.486111111109</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="12" t="b">
+        <f t="shared" ref="T7" si="4">IF(G7-F7&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f t="shared" ref="U7" si="5">IF(AND(D7="Stock Solution", N7&gt;=90, N7&lt;=110), "Good", IF(AND(D7="DI", N7&gt;=-3.33, N7&lt;=3.33), "Good", IF(OR(D7&lt;&gt;"Stock Solution", D7&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -8645,10 +9919,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -8666,64 +9940,84 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>1.2161999999999999</v>
+        <v>1.2172000000000001</v>
       </c>
       <c r="K8">
-        <v>1.2173</v>
+        <v>1.2182999999999999</v>
       </c>
       <c r="M8" s="18">
-        <f t="shared" si="0"/>
-        <v>1.1000000000001009</v>
+        <f t="shared" si="2"/>
+        <v>1.0999999999998789</v>
       </c>
       <c r="N8" s="18">
-        <f t="shared" si="1"/>
-        <v>36.666666666670032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <f t="shared" si="3"/>
+        <v>36.666666666662628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" s="12">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>45078</v>
       </c>
       <c r="G9" s="6">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="H9" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I9" s="12">
         <v>30</v>
       </c>
       <c r="J9">
-        <v>1.2281</v>
+        <v>1.2133</v>
       </c>
       <c r="K9">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="0"/>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="1"/>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2999999999998568</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="3"/>
+        <v>43.333333333328561</v>
+      </c>
+      <c r="O9" s="12">
+        <v>8.15</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>45082.486111111109</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="12" t="b">
+        <f t="shared" ref="T9" si="6">IF(G9-F9&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f t="shared" ref="U9" si="7">IF(AND(D9="Stock Solution", N9&gt;=90, N9&lt;=110), "Good", IF(AND(D9="DI", N9&gt;=-3.33, N9&lt;=3.33), "Good", IF(OR(D9&lt;&gt;"Stock Solution", D9&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -8731,10 +10025,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -8755,61 +10049,81 @@
         <v>1.2161999999999999</v>
       </c>
       <c r="K10">
-        <v>1.2171000000000001</v>
+        <v>1.2173</v>
       </c>
       <c r="M10" s="18">
-        <f t="shared" si="0"/>
-        <v>0.90000000000012292</v>
+        <f t="shared" ref="M10:M11" si="8">(SMALL(K10:L10,1)-J10)*1000</f>
+        <v>1.1000000000001009</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="1"/>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <f t="shared" ref="N10:N11" si="9">M10/(I10/1000)</f>
+        <v>36.666666666670032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11">
-        <v>7</v>
+      <c r="B11" s="12">
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>45078</v>
       </c>
       <c r="G11" s="6">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="H11" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I11" s="12">
         <v>30</v>
       </c>
       <c r="J11">
-        <v>1.1956</v>
+        <v>1.2211000000000001</v>
       </c>
       <c r="K11">
-        <v>1.1959</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="0"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="1"/>
-        <v>9.9999999999988987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>1.2218</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="8"/>
+        <v>0.69999999999992291</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="9"/>
+        <v>23.333333333330764</v>
+      </c>
+      <c r="O11" s="12">
+        <v>8.25</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="12" t="b">
+        <f t="shared" ref="T11" si="10">IF(G11-F11&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="12" t="str">
+        <f t="shared" ref="U11" si="11">IF(AND(D11="Stock Solution", N11&gt;=90, N11&lt;=110), "Good", IF(AND(D11="DI", N11&gt;=-3.33, N11&lt;=3.33), "Good", IF(OR(D11&lt;&gt;"Stock Solution", D11&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -8817,10 +10131,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -8838,64 +10152,84 @@
         <v>30</v>
       </c>
       <c r="J12">
-        <v>1.1971000000000001</v>
+        <v>1.2281</v>
       </c>
       <c r="K12">
-        <v>1.1978</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="M12" s="18">
-        <f t="shared" si="0"/>
-        <v>0.69999999999992291</v>
+        <f t="shared" ref="M12:M13" si="12">(SMALL(K12:L12,1)-J12)*1000</f>
+        <v>0.90000000000012292</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="1"/>
-        <v>23.333333333330764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <f t="shared" ref="N12:N13" si="13">M12/(I12/1000)</f>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>81</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
         <v>45078</v>
       </c>
       <c r="G13" s="6">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="H13" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I13" s="12">
         <v>30</v>
       </c>
       <c r="J13">
-        <v>1.2015</v>
+        <v>1.2148000000000001</v>
       </c>
       <c r="K13">
-        <v>1.2016</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="0"/>
-        <v>9.9999999999988987E-2</v>
-      </c>
-      <c r="N13" s="18">
-        <f t="shared" si="1"/>
-        <v>3.3333333333329662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>1.2156</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="12"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="13"/>
+        <v>26.66666666666373</v>
+      </c>
+      <c r="O13" s="12">
+        <v>8.24</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="12" t="b">
+        <f t="shared" ref="T13" si="14">IF(G13-F13&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="12" t="str">
+        <f t="shared" ref="U13" si="15">IF(AND(D13="Stock Solution", N13&gt;=90, N13&lt;=110), "Good", IF(AND(D13="DI", N13&gt;=-3.33, N13&lt;=3.33), "Good", IF(OR(D13&lt;&gt;"Stock Solution", D13&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -8903,10 +10237,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -8924,66 +10258,84 @@
         <v>30</v>
       </c>
       <c r="J14">
-        <v>1.2314000000000001</v>
+        <v>1.2161999999999999</v>
       </c>
       <c r="K14">
-        <v>1.2317</v>
+        <v>1.2171000000000001</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="0"/>
-        <v>0.29999999999996696</v>
+        <f t="shared" ref="M14:M15" si="16">(SMALL(K14:L14,1)-J14)*1000</f>
+        <v>0.90000000000012292</v>
       </c>
       <c r="N14" s="18">
-        <f t="shared" si="1"/>
-        <v>9.9999999999988987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <f t="shared" ref="N14:N15" si="17">M14/(I14/1000)</f>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="B15">
-        <v>7</v>
+      <c r="B15" s="12">
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>45078</v>
       </c>
       <c r="G15" s="6">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="H15" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I15" s="12">
         <v>30</v>
       </c>
       <c r="J15">
-        <v>1.2144999999999999</v>
+        <v>1.2181999999999999</v>
       </c>
       <c r="K15">
-        <v>1.2149000000000001</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="0"/>
-        <v>0.40000000000017799</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="1"/>
-        <v>13.333333333339267</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="16"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="17"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O15" s="12">
+        <v>8.36</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T15" s="12" t="b">
+        <f t="shared" ref="T15" si="18">IF(G15-F15&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="12" t="str">
+        <f t="shared" ref="U15" si="19">IF(AND(D15="Stock Solution", N15&gt;=90, N15&lt;=110), "Good", IF(AND(D15="DI", N15&gt;=-3.33, N15&lt;=3.33), "Good", IF(OR(D15&lt;&gt;"Stock Solution", D15&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -8991,10 +10343,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -9012,86 +10364,104 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>1.1976</v>
+        <v>1.1956</v>
       </c>
       <c r="K16">
-        <v>1.1984999999999999</v>
+        <v>1.1959</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="0"/>
-        <v>0.89999999999990088</v>
+        <f t="shared" ref="M16:M17" si="20">(SMALL(K16:L16,1)-J16)*1000</f>
+        <v>0.29999999999996696</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="1"/>
-        <v>29.999999999996696</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:14">
+        <f t="shared" ref="N16:N17" si="21">M16/(I16/1000)</f>
+        <v>9.9999999999988987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="12">
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G17" s="6">
-        <v>45098</v>
+        <v>45081</v>
       </c>
       <c r="H17" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I17" s="12">
         <v>30</v>
       </c>
       <c r="J17">
-        <v>1.2266999999999999</v>
+        <v>1.2131000000000001</v>
       </c>
       <c r="K17">
-        <v>1.2297</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="0"/>
-        <v>3.0000000000001137</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" si="1"/>
-        <v>100.00000000000379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.2134</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="20"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="21"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O17" s="12">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="12" t="b">
+        <f t="shared" ref="T17" si="22">IF(G17-F17&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="12" t="str">
+        <f t="shared" ref="U17" si="23">IF(AND(D17="Stock Solution", N17&gt;=90, N17&lt;=110), "Good", IF(AND(D17="DI", N17&gt;=-3.33, N17&lt;=3.33), "Good", IF(OR(D17&lt;&gt;"Stock Solution", D17&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G18" s="6">
         <v>45097</v>
-      </c>
-      <c r="G18" s="6">
-        <v>45098</v>
       </c>
       <c r="H18" s="6">
         <v>45102</v>
@@ -9100,171 +10470,210 @@
         <v>30</v>
       </c>
       <c r="J18">
-        <v>1.2141999999999999</v>
+        <v>1.1971000000000001</v>
       </c>
       <c r="K18">
-        <v>1.2141999999999999</v>
+        <v>1.1978</v>
       </c>
       <c r="M18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="M18:M19" si="24">(SMALL(K18:L18,1)-J18)*1000</f>
+        <v>0.69999999999992291</v>
       </c>
       <c r="N18" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <f t="shared" ref="N18:N19" si="25">M18/(I18/1000)</f>
+        <v>23.333333333330764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45081</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45085</v>
+      </c>
+      <c r="I19" s="12">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>1.2038</v>
+      </c>
+      <c r="K19">
+        <v>1.2039</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="24"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="25"/>
+        <v>3.3333333333329662</v>
+      </c>
+      <c r="O19" s="12">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="12" t="b">
+        <f t="shared" ref="T19" si="26">IF(G19-F19&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="12" t="str">
+        <f t="shared" ref="U19" si="27">IF(AND(D19="Stock Solution", N19&gt;=90, N19&lt;=110), "Good", IF(AND(D19="DI", N19&gt;=-3.33, N19&lt;=3.33), "Good", IF(OR(D19&lt;&gt;"Stock Solution", D19&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G20" s="6">
         <v>45097</v>
       </c>
-      <c r="G19" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <v>45102</v>
       </c>
-      <c r="I19" s="12">
-        <v>30</v>
-      </c>
-      <c r="J19">
-        <v>1.2141</v>
-      </c>
-      <c r="K19">
-        <v>1.2151000000000001</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="0"/>
-        <v>1.0000000000001119</v>
-      </c>
-      <c r="N19" s="18">
-        <f t="shared" si="1"/>
-        <v>33.333333333337066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="I20" s="12">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>1.2015</v>
+      </c>
+      <c r="K20">
+        <v>1.2016</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" ref="M20:M21" si="28">(SMALL(K20:L20,1)-J20)*1000</f>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="N20" s="18">
+        <f t="shared" ref="N20:N21" si="29">M20/(I20/1000)</f>
+        <v>3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="C21">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>45078</v>
       </c>
-      <c r="G20" s="21">
-        <v>45098</v>
-      </c>
-      <c r="H20" s="21">
-        <v>45102</v>
-      </c>
-      <c r="I20" s="22">
-        <v>30</v>
-      </c>
-      <c r="J20" s="20">
-        <v>1.2144999999999999</v>
-      </c>
-      <c r="K20" s="20">
-        <v>1.2154</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="N20" s="23">
-        <f t="shared" si="1"/>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
+        <v>45081</v>
+      </c>
+      <c r="H21" s="6">
         <v>45085</v>
       </c>
-      <c r="G21" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H21" s="6">
-        <v>45102</v>
-      </c>
       <c r="I21" s="12">
         <v>30</v>
       </c>
       <c r="J21">
-        <v>1.2205999999999999</v>
+        <v>1.2197</v>
       </c>
       <c r="K21">
-        <v>1.2212000000000001</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="0"/>
-        <v>0.60000000000015596</v>
-      </c>
-      <c r="N21" s="18">
-        <f t="shared" si="1"/>
-        <v>20.000000000005201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.22</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="28"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N21" s="14">
+        <f t="shared" si="29"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O21" s="12">
+        <v>8.42</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="12" t="b">
+        <f t="shared" ref="T21" si="30">IF(G21-F21&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="12" t="str">
+        <f t="shared" ref="U21" si="31">IF(AND(D21="Stock Solution", N21&gt;=90, N21&lt;=110), "Good", IF(AND(D21="DI", N21&gt;=-3.33, N21&lt;=3.33), "Good", IF(OR(D21&lt;&gt;"Stock Solution", D21&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="6">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="G22" s="6">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="H22" s="6">
         <v>45102</v>
@@ -9273,84 +10682,104 @@
         <v>30</v>
       </c>
       <c r="J22">
-        <v>1.2158</v>
+        <v>1.2314000000000001</v>
       </c>
       <c r="K22">
-        <v>1.2166999999999999</v>
+        <v>1.2317</v>
       </c>
       <c r="M22" s="18">
-        <f t="shared" si="0"/>
-        <v>0.89999999999990088</v>
+        <f t="shared" ref="M22:M27" si="32">(SMALL(K22:L22,1)-J22)*1000</f>
+        <v>0.29999999999996696</v>
       </c>
       <c r="N22" s="18">
-        <f t="shared" si="1"/>
-        <v>29.999999999996696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <f t="shared" ref="N22:N27" si="33">M22/(I22/1000)</f>
+        <v>9.9999999999988987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45081</v>
+      </c>
+      <c r="H23" s="6">
         <v>45085</v>
       </c>
-      <c r="G23" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H23" s="6">
-        <v>45102</v>
-      </c>
       <c r="I23" s="12">
         <v>30</v>
       </c>
       <c r="J23">
-        <v>1.2175</v>
+        <v>1.1967000000000001</v>
       </c>
       <c r="K23">
-        <v>1.2181</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="0"/>
-        <v>0.59999999999993392</v>
-      </c>
-      <c r="N23" s="18">
-        <f t="shared" si="1"/>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.1975</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="32"/>
+        <v>0.79999999999991189</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="33"/>
+        <v>26.66666666666373</v>
+      </c>
+      <c r="O23" s="12">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="12" t="b">
+        <f t="shared" ref="T23" si="34">IF(G23-F23&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="12" t="str">
+        <f t="shared" ref="U23" si="35">IF(AND(D23="Stock Solution", N23&gt;=90, N23&lt;=110), "Good", IF(AND(D23="DI", N23&gt;=-3.33, N23&lt;=3.33), "Good", IF(OR(D23&lt;&gt;"Stock Solution", D23&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" s="6">
-        <v>45085</v>
+        <v>45078</v>
       </c>
       <c r="G24" s="6">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="H24" s="6">
         <v>45102</v>
@@ -9359,72 +10788,106 @@
         <v>30</v>
       </c>
       <c r="J24">
-        <v>1.2168000000000001</v>
+        <v>1.2144999999999999</v>
       </c>
       <c r="K24">
-        <v>1.2173</v>
+        <v>1.2149000000000001</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" si="0"/>
-        <v>0.49999999999994493</v>
+        <f t="shared" si="32"/>
+        <v>0.40000000000017799</v>
       </c>
       <c r="N24" s="18">
-        <f t="shared" si="1"/>
-        <v>16.666666666664831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="B25">
-        <v>9</v>
+        <f t="shared" si="33"/>
+        <v>13.333333333339267</v>
+      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="12">
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>113</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G25" s="6">
-        <v>45098</v>
+        <v>45081</v>
       </c>
       <c r="H25" s="6">
-        <v>45102</v>
+        <v>45085</v>
       </c>
       <c r="I25" s="12">
         <v>30</v>
       </c>
       <c r="J25">
-        <v>1.2071000000000001</v>
+        <v>1.2123999999999999</v>
       </c>
       <c r="K25">
-        <v>1.21</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="0"/>
-        <v>2.8999999999999027</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" si="1"/>
-        <v>96.666666666663431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1.2132000000000001</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="32"/>
+        <v>0.80000000000013394</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="33"/>
+        <v>26.666666666671134</v>
+      </c>
+      <c r="O25" s="12">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T25" s="12" t="b">
+        <f t="shared" ref="T25" si="36">IF(G25-F25&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="12" t="str">
+        <f t="shared" ref="U25" si="37">IF(AND(D25="Stock Solution", N25&gt;=90, N25&lt;=110), "Good", IF(AND(D25="DI", N25&gt;=-3.33, N25&lt;=3.33), "Good", IF(OR(D25&lt;&gt;"Stock Solution", D25&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
       <c r="F26" s="6">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G26" s="6">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="H26" s="6">
         <v>45102</v>
@@ -9433,81 +10896,103 @@
         <v>30</v>
       </c>
       <c r="J26">
-        <v>1.2269000000000001</v>
+        <v>1.1976</v>
       </c>
       <c r="K26">
-        <v>1.2269000000000001</v>
+        <v>1.1984999999999999</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>0.89999999999990088</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <f t="shared" si="33"/>
+        <v>29.999999999996696</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
+        <v>81</v>
+      </c>
+      <c r="B27" s="12">
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45081</v>
+      </c>
+      <c r="H27" s="6">
         <v>45085</v>
       </c>
-      <c r="G27" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H27" s="6">
-        <v>45102</v>
-      </c>
       <c r="I27" s="12">
         <v>30</v>
       </c>
       <c r="J27">
-        <v>1.2010000000000001</v>
+        <v>1.2065999999999999</v>
       </c>
       <c r="K27">
-        <v>1.2016</v>
-      </c>
-      <c r="M27" s="18">
-        <f t="shared" si="0"/>
-        <v>0.59999999999993392</v>
-      </c>
-      <c r="N27" s="18">
-        <f t="shared" si="1"/>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>1.2074</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="32"/>
+        <v>0.80000000000013394</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="33"/>
+        <v>26.666666666671134</v>
+      </c>
+      <c r="O27" s="12">
+        <v>7.72</v>
+      </c>
+      <c r="P27" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T27" s="12" t="b">
+        <f t="shared" ref="T27" si="38">IF(G27-F27&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="12" t="str">
+        <f t="shared" ref="U27" si="39">IF(AND(D27="Stock Solution", N27&gt;=90, N27&lt;=110), "Good", IF(AND(D27="DI", N27&gt;=-3.33, N27&lt;=3.33), "Good", IF(OR(D27&lt;&gt;"Stock Solution", D27&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>117</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" s="6">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G28" s="6">
         <v>45098</v>
@@ -9519,17 +11004,760 @@
         <v>30</v>
       </c>
       <c r="J28">
+        <v>1.2141</v>
+      </c>
+      <c r="K28">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" ref="M28:M42" si="40">(SMALL(K28:L28,1)-J28)*1000</f>
+        <v>1.0000000000001119</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" ref="N28:N42" si="41">M28/(I28/1000)</f>
+        <v>33.333333333337066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45078</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45081</v>
+      </c>
+      <c r="H29" s="6">
+        <v>45085</v>
+      </c>
+      <c r="I29" s="12">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>1.2017</v>
+      </c>
+      <c r="K29">
+        <v>1.2114</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="40"/>
+        <v>9.7000000000000419</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="41"/>
+        <v>323.33333333333474</v>
+      </c>
+      <c r="O29" s="12">
+        <v>7.51</v>
+      </c>
+      <c r="P29" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>45082.486111053244</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" s="12" t="b">
+        <f t="shared" ref="T29" si="42">IF(G29-F29&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="12" t="str">
+        <f t="shared" ref="U29" si="43">IF(AND(D29="Stock Solution", N29&gt;=90, N29&lt;=110), "Good", IF(AND(D29="DI", N29&gt;=-3.33, N29&lt;=3.33), "Good", IF(OR(D29&lt;&gt;"Stock Solution", D29&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+      <c r="V29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="20">
+        <v>8</v>
+      </c>
+      <c r="C30" s="20">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21">
+        <v>45078</v>
+      </c>
+      <c r="G30" s="21">
+        <v>45098</v>
+      </c>
+      <c r="H30" s="21">
+        <v>45102</v>
+      </c>
+      <c r="I30" s="22">
+        <v>30</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="K30" s="20">
+        <v>1.2154</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="23">
+        <f t="shared" si="40"/>
+        <v>0.90000000000012292</v>
+      </c>
+      <c r="N30" s="23">
+        <f t="shared" si="41"/>
+        <v>30.0000000000041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="12">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H31" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I31" s="12">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="K31">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="M31" s="18">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T31" s="12" t="b">
+        <f t="shared" ref="T31" si="44">IF(G31-F31&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="12" t="str">
+        <f t="shared" ref="U31" si="45">IF(AND(D31="Stock Solution", N31&gt;=90, N31&lt;=110), "Good", IF(AND(D31="DI", N31&gt;=-3.33, N31&lt;=3.33), "Good", IF(OR(D31&lt;&gt;"Stock Solution", D31&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H32" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I32" s="12">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>1.2205999999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.2212000000000001</v>
+      </c>
+      <c r="M32" s="18">
+        <f t="shared" si="40"/>
+        <v>0.60000000000015596</v>
+      </c>
+      <c r="N32" s="18">
+        <f t="shared" si="41"/>
+        <v>20.000000000005201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="12">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H33" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I33" s="12">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>1.1915</v>
+      </c>
+      <c r="K33">
+        <v>1.1915</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <v>7.99</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T33" s="12" t="b">
+        <f t="shared" ref="T33" si="46">IF(G33-F33&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="12" t="str">
+        <f t="shared" ref="U33" si="47">IF(AND(D33="Stock Solution", N33&gt;=90, N33&lt;=110), "Good", IF(AND(D33="DI", N33&gt;=-3.33, N33&lt;=3.33), "Good", IF(OR(D33&lt;&gt;"Stock Solution", D33&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H34" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I34" s="12">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>1.2158</v>
+      </c>
+      <c r="K34">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="40"/>
+        <v>0.89999999999990088</v>
+      </c>
+      <c r="N34" s="18">
+        <f t="shared" si="41"/>
+        <v>29.999999999996696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="12">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H35" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I35" s="12">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>1.214</v>
+      </c>
+      <c r="K35">
+        <v>1.2142999999999999</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="40"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N35" s="18">
+        <f t="shared" si="41"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O35" s="12">
+        <v>7.89</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T35" s="12" t="b">
+        <f t="shared" ref="T35" si="48">IF(G35-F35&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="12" t="str">
+        <f t="shared" ref="U35" si="49">IF(AND(D35="Stock Solution", N35&gt;=90, N35&lt;=110), "Good", IF(AND(D35="DI", N35&gt;=-3.33, N35&lt;=3.33), "Good", IF(OR(D35&lt;&gt;"Stock Solution", D35&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H36" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I36" s="12">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>1.2175</v>
+      </c>
+      <c r="K36">
+        <v>1.2181</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" si="40"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N36" s="18">
+        <f t="shared" si="41"/>
+        <v>19.999999999997797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H37" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I37" s="12">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>1.1974</v>
+      </c>
+      <c r="K37">
+        <v>1.1976</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="40"/>
+        <v>0.19999999999997797</v>
+      </c>
+      <c r="N37" s="18">
+        <f t="shared" si="41"/>
+        <v>6.6666666666659324</v>
+      </c>
+      <c r="O37" s="12">
+        <v>8.02</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T37" s="12" t="b">
+        <f t="shared" ref="T37" si="50">IF(G37-F37&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="12" t="str">
+        <f t="shared" ref="U37" si="51">IF(AND(D37="Stock Solution", N37&gt;=90, N37&lt;=110), "Good", IF(AND(D37="DI", N37&gt;=-3.33, N37&lt;=3.33), "Good", IF(OR(D37&lt;&gt;"Stock Solution", D37&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H38" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I38" s="12">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="K38">
+        <v>1.2173</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="40"/>
+        <v>0.49999999999994493</v>
+      </c>
+      <c r="N38" s="18">
+        <f t="shared" si="41"/>
+        <v>16.666666666664831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G39" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H39" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I39" s="12">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>1.2201</v>
+      </c>
+      <c r="K39">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="M39" s="18">
+        <f t="shared" si="40"/>
+        <v>0.29999999999996696</v>
+      </c>
+      <c r="N39" s="18">
+        <f t="shared" si="41"/>
+        <v>9.9999999999988987</v>
+      </c>
+      <c r="O39" s="12">
+        <v>8.01</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T39" s="12" t="b">
+        <f t="shared" ref="T39" si="52">IF(G39-F39&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="12" t="str">
+        <f t="shared" ref="U39" si="53">IF(AND(D39="Stock Solution", N39&gt;=90, N39&lt;=110), "Good", IF(AND(D39="DI", N39&gt;=-3.33, N39&lt;=3.33), "Good", IF(OR(D39&lt;&gt;"Stock Solution", D39&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H40" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I40" s="12">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="K40">
+        <v>1.2016</v>
+      </c>
+      <c r="M40" s="18">
+        <f t="shared" si="40"/>
+        <v>0.59999999999993392</v>
+      </c>
+      <c r="N40" s="18">
+        <f t="shared" si="41"/>
+        <v>19.999999999997797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G41" s="6">
+        <v>45089</v>
+      </c>
+      <c r="H41" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I41" s="12">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="M41" s="18">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>7.97</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>45091.125</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41" s="12" t="b">
+        <f t="shared" ref="T41" si="54">IF(G41-F41&gt;7, TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="12" t="str">
+        <f t="shared" ref="U41" si="55">IF(AND(D41="Stock Solution", N41&gt;=90, N41&lt;=110), "Good", IF(AND(D41="DI", N41&gt;=-3.33, N41&lt;=3.33), "Good", IF(OR(D41&lt;&gt;"Stock Solution", D41&lt;&gt;"DI"), "", "Bad")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45085</v>
+      </c>
+      <c r="G42" s="6">
+        <v>45098</v>
+      </c>
+      <c r="H42" s="6">
+        <v>45102</v>
+      </c>
+      <c r="I42" s="12">
+        <v>30</v>
+      </c>
+      <c r="J42">
         <v>1.2165999999999999</v>
       </c>
-      <c r="K28">
+      <c r="K42">
         <v>1.2170000000000001</v>
       </c>
-      <c r="M28" s="18">
-        <f t="shared" si="0"/>
+      <c r="M42" s="18">
+        <f t="shared" si="40"/>
         <v>0.40000000000017799</v>
       </c>
-      <c r="N28" s="18">
-        <f t="shared" si="1"/>
+      <c r="N42" s="18">
+        <f t="shared" si="41"/>
         <v>13.333333333339267</v>
       </c>
     </row>
@@ -9540,20 +11768,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD5783-6DE4-4462-AE79-C2E78620ED17}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:M25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -9594,7 +11822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -9633,7 +11861,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -9672,7 +11900,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -9709,7 +11937,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -9747,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -9784,7 +12012,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -9821,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -9858,7 +12086,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -9895,7 +12123,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -9929,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9963,7 +12191,7 @@
         <v>93.333333333337862</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9998,7 +12226,7 @@
       </c>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>7</v>
       </c>
@@ -10033,7 +12261,7 @@
       </c>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>4</v>
       </c>
@@ -10070,7 +12298,7 @@
         <v>103.33333333332936</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>5</v>
       </c>
@@ -10107,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>4</v>
       </c>
@@ -10144,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>4</v>
       </c>
@@ -10184,7 +12412,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>8</v>
       </c>
@@ -10224,7 +12452,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>8</v>
       </c>
@@ -10264,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>9</v>
       </c>
@@ -10293,15 +12521,15 @@
         <v>1.21</v>
       </c>
       <c r="L20" s="18">
-        <f t="shared" ref="L20:L25" si="4">(SMALL(J20:K20,1)-I20)*1000</f>
+        <f t="shared" ref="L20:L39" si="4">(SMALL(J20:K20,1)-I20)*1000</f>
         <v>2.8999999999999027</v>
       </c>
       <c r="M20" s="18">
-        <f t="shared" ref="M20:M25" si="5">L20/(H20/1000)</f>
+        <f t="shared" ref="M20:M39" si="5">L20/(H20/1000)</f>
         <v>96.666666666663431</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>9</v>
       </c>
@@ -10338,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>9</v>
       </c>
@@ -10375,7 +12603,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>9</v>
       </c>
@@ -10412,7 +12640,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
@@ -10449,7 +12677,7 @@
         <v>96.666666666670821</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -10484,6 +12712,524 @@
       <c r="M25" s="18">
         <f t="shared" si="5"/>
         <v>3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45104</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45105</v>
+      </c>
+      <c r="H26" s="12">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>1.2181999999999999</v>
+      </c>
+      <c r="J26">
+        <v>1.2214</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="4"/>
+        <v>3.2000000000000917</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="5"/>
+        <v>106.66666666666973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45104</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45105</v>
+      </c>
+      <c r="H27" s="12">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="J27">
+        <v>1.2025999999999999</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H28" s="12">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>1.2168000000000001</v>
+      </c>
+      <c r="J28">
+        <v>1.2198</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="4"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="5"/>
+        <v>99.99999999999639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H29" s="12">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>1.2277</v>
+      </c>
+      <c r="J29">
+        <v>1.2277</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H30" s="12">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>1.2174</v>
+      </c>
+      <c r="J30">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="4"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="5"/>
+        <v>99.99999999999639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H31" s="12">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="J31">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H32" s="12">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>1.2021999999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.2053</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="4"/>
+        <v>3.1000000000001027</v>
+      </c>
+      <c r="M32" s="18">
+        <f t="shared" si="5"/>
+        <v>103.33333333333675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45112</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45118</v>
+      </c>
+      <c r="H33" s="12">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>1.1932</v>
+      </c>
+      <c r="J33">
+        <v>1.1933</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="4"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H34" s="12">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>1.2007000000000001</v>
+      </c>
+      <c r="J34">
+        <v>1.2037</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="4"/>
+        <v>2.9999999999998916</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="5"/>
+        <v>99.99999999999639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G35" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H35" s="12">
+        <v>30</v>
+      </c>
+      <c r="I35">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="J35">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="4"/>
+        <v>9.9999999999988987E-2</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="5"/>
+        <v>3.3333333333329662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G36" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H36" s="12">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>1.204</v>
+      </c>
+      <c r="J36">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="4"/>
+        <v>3.1000000000001027</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" si="5"/>
+        <v>103.33333333333675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H37" s="12">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="J37">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F38" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H38" s="12">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="J38">
+        <v>1.2201</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="4"/>
+        <v>3.0999999999998806</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" si="5"/>
+        <v>103.33333333332936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F39" s="6">
+        <v>45126</v>
+      </c>
+      <c r="G39" s="6">
+        <v>45128</v>
+      </c>
+      <c r="H39" s="12">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>1.2178</v>
+      </c>
+      <c r="J39">
+        <v>1.2178</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10502,8 +13248,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678F2DA36292A241BB6B602A04ACAAD9" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f29c55d71e5194ed6e3f8d2e42b3896">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="167cb1e9-24b5-43e0-9f5d-14a54474cc90" xmlns:ns3="fbf6f0f6-9634-473c-8838-2f74fc79f714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f5c23ad112b6ffa0a8d90034e5b40c7" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678F2DA36292A241BB6B602A04ACAAD9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d9fb0f190deb5e7e937e6d8ad317d77">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="167cb1e9-24b5-43e0-9f5d-14a54474cc90" xmlns:ns3="fbf6f0f6-9634-473c-8838-2f74fc79f714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="211896cd03a7fb44aac70cae515804dc" ns2:_="" ns3:_="">
     <xsd:import namespace="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
     <xsd:import namespace="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
     <xsd:element name="properties">
@@ -10527,6 +13273,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10601,6 +13348,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10744,10 +13496,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39B0CD1-B9F5-46EF-9A5D-20CD24864208}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFBBD27-ACF1-4801-B8AD-B8A884D06C80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
+    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040D730D-348F-4357-9B29-460576E1CB19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
+    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TSS/TSS_Master_2023.xlsx
+++ b/TSS/TSS_Master_2023.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ-CPU\Documents\GitHub\ALS-Data-Cleaning-Tool\TSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansleybr\Documents\GitHub\ALS-Data-Cleaning-Tool\TSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73561CBA-EC91-45F2-A435-3E291C9D27FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A69DD2F-CF40-4111-9B0C-E1C31D53E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="MasterData" sheetId="2" r:id="rId2"/>
-    <sheet name="probe experiment" sheetId="4" r:id="rId3"/>
-    <sheet name="Caz QAQC" sheetId="3" r:id="rId4"/>
+    <sheet name="Caz QAQC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>Column Name</t>
   </si>
@@ -287,82 +286,7 @@
     <t>DI</t>
   </si>
   <si>
-    <t>Steamboat</t>
-  </si>
-  <si>
     <t>ph, EC collected by Jake</t>
-  </si>
-  <si>
-    <t>Boulder</t>
-  </si>
-  <si>
-    <t>BOL-01-GB-4</t>
-  </si>
-  <si>
-    <t>BOL-01-GB-4-D</t>
-  </si>
-  <si>
-    <t>SCA-02-GB-4</t>
-  </si>
-  <si>
-    <t>Caz (TSS, pH, EC), Dani cleaning</t>
-  </si>
-  <si>
-    <t>SCA-02-GB-4-D</t>
-  </si>
-  <si>
-    <t>SB-02-OT-ISC-4</t>
-  </si>
-  <si>
-    <t>SB-02-OT-ISC-4-D</t>
-  </si>
-  <si>
-    <t>SCI-02-GB-4</t>
-  </si>
-  <si>
-    <t>SCI-02-GB-4-D</t>
-  </si>
-  <si>
-    <t>SCO-02-GB-4</t>
-  </si>
-  <si>
-    <t>SCO-02-GB-4-D</t>
-  </si>
-  <si>
-    <t>TR-02-GB-4</t>
-  </si>
-  <si>
-    <t>TR-02-GB-4-D</t>
-  </si>
-  <si>
-    <t>MOR-02-GB-4</t>
-  </si>
-  <si>
-    <t>MOR-02-GB-4-D</t>
-  </si>
-  <si>
-    <t>Don'y use this value in the future, bad error</t>
-  </si>
-  <si>
-    <t>Yampa</t>
-  </si>
-  <si>
-    <t>UYM-02-IN-LC-4</t>
-  </si>
-  <si>
-    <t>UYM-02-IN-LC-4-D</t>
-  </si>
-  <si>
-    <t>UYM-02-OT-ISC-4-1</t>
-  </si>
-  <si>
-    <t>UYM-02-OT-ISC-4-2</t>
-  </si>
-  <si>
-    <t>UYM-OT-ISC-4-3</t>
-  </si>
-  <si>
-    <t>UYM-OT-ISC-4-4</t>
   </si>
   <si>
     <t>Caz</t>
@@ -532,7 +456,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,12 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,14 +551,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -938,19 +848,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -958,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -981,7 +891,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +914,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1070,7 +980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1078,7 +988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1100,7 +1010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1111,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1120,7 +1030,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1128,7 +1038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1136,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1145,7 +1055,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1161,7 +1071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1169,19 +1079,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1189,7 +1099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1206,27 +1116,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B25874-14DA-4CDE-A9BC-C61EE37E0489}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1328125" style="12"/>
-    <col min="16" max="16" width="10.265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="12"/>
+    <col min="16" max="16" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>9</v>
       </c>
@@ -1302,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6">
         <v>45092</v>
@@ -1337,7 +1247,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T2" s="12" t="b">
         <f t="shared" ref="T2:T15" si="2">IF(G2-F2&gt;7, TRUE, FALSE)</f>
@@ -1348,10 +1258,10 @@
         <v/>
       </c>
       <c r="V2" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>9</v>
       </c>
@@ -1359,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F3" s="6">
         <v>45092</v>
@@ -1394,7 +1304,7 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T3" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1405,10 +1315,10 @@
         <v/>
       </c>
       <c r="V3" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>9</v>
       </c>
@@ -1416,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6">
         <v>45092</v>
@@ -1451,7 +1361,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T4" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1462,10 +1372,10 @@
         <v/>
       </c>
       <c r="V4" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>9</v>
       </c>
@@ -1473,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F5" s="6">
         <v>45092</v>
@@ -1508,7 +1418,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T5" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1519,10 +1429,10 @@
         <v/>
       </c>
       <c r="V5" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>9</v>
       </c>
@@ -1530,7 +1440,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F6" s="6">
         <v>45092</v>
@@ -1565,7 +1475,7 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T6" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1576,10 +1486,10 @@
         <v/>
       </c>
       <c r="V6" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>9</v>
       </c>
@@ -1587,7 +1497,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6">
         <v>45092</v>
@@ -1622,7 +1532,7 @@
         <v>0.748</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T7" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1633,10 +1543,10 @@
         <v/>
       </c>
       <c r="V7" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10</v>
       </c>
@@ -1673,7 +1583,7 @@
         <v>96.666666666670821</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T8" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1684,7 +1594,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
@@ -1721,7 +1631,7 @@
         <v>3.3333333333329662</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T9" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1732,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
@@ -1740,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6">
         <v>45092</v>
@@ -1775,7 +1685,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T10" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1786,10 +1696,10 @@
         <v/>
       </c>
       <c r="V10" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1797,7 +1707,7 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F11" s="6">
         <v>45092</v>
@@ -1832,7 +1742,7 @@
         <v>0.753</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T11" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1843,10 +1753,10 @@
         <v/>
       </c>
       <c r="V11" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1854,7 +1764,7 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F12" s="6">
         <v>45092</v>
@@ -1889,7 +1799,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1900,10 +1810,10 @@
         <v/>
       </c>
       <c r="V12" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1911,7 +1821,7 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6">
         <v>45092</v>
@@ -1946,7 +1856,7 @@
         <v>0.82</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="2"/>
@@ -1957,10 +1867,10 @@
         <v/>
       </c>
       <c r="V13" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -1968,7 +1878,7 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F14" s="6">
         <v>45092</v>
@@ -2003,7 +1913,7 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="2"/>
@@ -2014,10 +1924,10 @@
         <v/>
       </c>
       <c r="V14" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2025,7 +1935,7 @@
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F15" s="6">
         <v>45092</v>
@@ -2060,7 +1970,7 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="2"/>
@@ -2071,10 +1981,10 @@
         <v/>
       </c>
       <c r="V15" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2117,7 +2027,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2160,7 +2070,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2168,7 +2078,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F18" s="6">
         <v>45124</v>
@@ -2203,7 +2113,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2211,7 +2121,7 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F19" s="6">
         <v>45124</v>
@@ -2246,7 +2156,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15</v>
       </c>
@@ -2254,7 +2164,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F20" s="6">
         <v>45124</v>
@@ -2287,7 +2197,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -2295,7 +2205,7 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6">
         <v>45124</v>
@@ -2328,7 +2238,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>15</v>
       </c>
@@ -2336,7 +2246,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6">
         <v>45124</v>
@@ -2369,7 +2279,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>15</v>
       </c>
@@ -2377,7 +2287,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6">
         <v>45124</v>
@@ -2410,7 +2320,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>15</v>
       </c>
@@ -2418,7 +2328,7 @@
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6">
         <v>45124</v>
@@ -2451,7 +2361,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>15</v>
       </c>
@@ -2459,7 +2369,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F25" s="6">
         <v>45124</v>
@@ -2492,7 +2402,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>15</v>
       </c>
@@ -2500,7 +2410,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F26" s="6">
         <v>45124</v>
@@ -2533,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>15</v>
       </c>
@@ -2541,7 +2451,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6">
         <v>45124</v>
@@ -2574,7 +2484,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>16</v>
       </c>
@@ -2615,7 +2525,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>16</v>
       </c>
@@ -2656,7 +2566,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>16</v>
       </c>
@@ -2664,7 +2574,7 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F30" s="6">
         <v>45124</v>
@@ -2697,7 +2607,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>16</v>
       </c>
@@ -2705,7 +2615,7 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F31" s="6">
         <v>45124</v>
@@ -2738,7 +2648,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>16</v>
       </c>
@@ -2746,7 +2656,7 @@
         <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F32" s="6">
         <v>45124</v>
@@ -2779,7 +2689,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>16</v>
       </c>
@@ -2787,7 +2697,7 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F33" s="6">
         <v>45124</v>
@@ -2820,7 +2730,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>16</v>
       </c>
@@ -2828,7 +2738,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F34" s="6">
         <v>45124</v>
@@ -2861,7 +2771,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>16</v>
       </c>
@@ -2869,7 +2779,7 @@
         <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F35" s="6">
         <v>45124</v>
@@ -2902,7 +2812,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>16</v>
       </c>
@@ -2910,7 +2820,7 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F36" s="6">
         <v>45124</v>
@@ -2943,7 +2853,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>16</v>
       </c>
@@ -2951,7 +2861,7 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F37" s="6">
         <v>45124</v>
@@ -2984,7 +2894,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>16</v>
       </c>
@@ -2992,7 +2902,7 @@
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F38" s="6">
         <v>45124</v>
@@ -3025,7 +2935,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>16</v>
       </c>
@@ -3033,7 +2943,7 @@
         <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F39" s="6">
         <v>45124</v>
@@ -3066,7 +2976,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>17</v>
       </c>
@@ -3103,7 +3013,7 @@
         <v>103.33333333332936</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>17</v>
       </c>
@@ -3140,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>17</v>
       </c>
@@ -3148,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F42" s="6">
         <v>45124</v>
@@ -3177,7 +3087,7 @@
         <v>383.33333333332814</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>17</v>
       </c>
@@ -3185,7 +3095,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F43" s="6">
         <v>45124</v>
@@ -3214,7 +3124,7 @@
         <v>1563.3333333333314</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>17</v>
       </c>
@@ -3222,7 +3132,7 @@
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F44" s="6">
         <v>45124</v>
@@ -3251,7 +3161,7 @@
         <v>1886.6666666666661</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>17</v>
       </c>
@@ -3259,7 +3169,7 @@
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F45" s="6">
         <v>45124</v>
@@ -3288,7 +3198,7 @@
         <v>1450.0000000000032</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="I46" s="12"/>
@@ -3302,2214 +3212,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72DA8E6-28C6-4FBA-8CF2-04F8551A4743}">
-  <dimension ref="A1:V42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="12">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G2" s="6">
-        <v>45067</v>
-      </c>
-      <c r="H2" s="6">
-        <v>45068</v>
-      </c>
-      <c r="I2" s="12">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>1.1921999999999999</v>
-      </c>
-      <c r="K2">
-        <v>1.1929000000000001</v>
-      </c>
-      <c r="M2" s="14">
-        <f>(SMALL(K2:L2,1)-J2)*1000</f>
-        <v>0.70000000000014495</v>
-      </c>
-      <c r="N2" s="14">
-        <f>M2/(I2/1000)</f>
-        <v>23.333333333338167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="12">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45070</v>
-      </c>
-      <c r="H3" s="6">
-        <v>45071</v>
-      </c>
-      <c r="I3" s="12">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>1.1861999999999999</v>
-      </c>
-      <c r="K3">
-        <v>1.1867000000000001</v>
-      </c>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3" si="0">(SMALL(K3:L3,1)-J3)*1000</f>
-        <v>0.50000000000016698</v>
-      </c>
-      <c r="N3" s="14">
-        <f t="shared" ref="N3" si="1">M3/(I3/1000)</f>
-        <v>16.666666666672235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="12">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G4" s="6">
-        <v>45067</v>
-      </c>
-      <c r="H4" s="6">
-        <v>45068</v>
-      </c>
-      <c r="I4" s="12">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>1.2146999999999999</v>
-      </c>
-      <c r="K4">
-        <v>1.2158</v>
-      </c>
-      <c r="M4" s="14">
-        <f>(SMALL(K4:L4,1)-J4)*1000</f>
-        <v>1.1000000000001009</v>
-      </c>
-      <c r="N4" s="14">
-        <f>M4/(I4/1000)</f>
-        <v>36.666666666670032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G5" s="6">
-        <v>45070</v>
-      </c>
-      <c r="H5" s="6">
-        <v>45071</v>
-      </c>
-      <c r="I5" s="12">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>1.2131000000000001</v>
-      </c>
-      <c r="K5">
-        <v>1.2137</v>
-      </c>
-      <c r="M5" s="14">
-        <f t="shared" ref="M5:M9" si="2">(SMALL(K5:L5,1)-J5)*1000</f>
-        <v>0.59999999999993392</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" ref="N5:N9" si="3">M5/(I5/1000)</f>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="12">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G6" s="6">
-        <v>45070</v>
-      </c>
-      <c r="H6" s="6">
-        <v>45071</v>
-      </c>
-      <c r="I6" s="12">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>1.2131000000000001</v>
-      </c>
-      <c r="K6">
-        <v>1.2138</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" si="2"/>
-        <v>0.69999999999992291</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="3"/>
-        <v>23.333333333330764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H7" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I7" s="12">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>1.2096</v>
-      </c>
-      <c r="K7">
-        <v>1.2105999999999999</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="2"/>
-        <v>0.99999999999988987</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="3"/>
-        <v>33.333333333329662</v>
-      </c>
-      <c r="O7" s="12">
-        <v>8.18</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>45082.486111111109</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="12" t="b">
-        <f t="shared" ref="T7" si="4">IF(G7-F7&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="12" t="str">
-        <f t="shared" ref="U7" si="5">IF(AND(D7="Stock Solution", N7&gt;=90, N7&lt;=110), "Good", IF(AND(D7="DI", N7&gt;=-3.33, N7&lt;=3.33), "Good", IF(OR(D7&lt;&gt;"Stock Solution", D7&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I8" s="12">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>1.2172000000000001</v>
-      </c>
-      <c r="K8">
-        <v>1.2182999999999999</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="2"/>
-        <v>1.0999999999998789</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="3"/>
-        <v>36.666666666662628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G9" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H9" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I9" s="12">
-        <v>30</v>
-      </c>
-      <c r="J9">
-        <v>1.2133</v>
-      </c>
-      <c r="K9">
-        <v>1.2145999999999999</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="2"/>
-        <v>1.2999999999998568</v>
-      </c>
-      <c r="N9" s="14">
-        <f t="shared" si="3"/>
-        <v>43.333333333328561</v>
-      </c>
-      <c r="O9" s="12">
-        <v>8.15</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>45082.486111111109</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="12" t="b">
-        <f t="shared" ref="T9" si="6">IF(G9-F9&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="12" t="str">
-        <f t="shared" ref="U9" si="7">IF(AND(D9="Stock Solution", N9&gt;=90, N9&lt;=110), "Good", IF(AND(D9="DI", N9&gt;=-3.33, N9&lt;=3.33), "Good", IF(OR(D9&lt;&gt;"Stock Solution", D9&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G10" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H10" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I10" s="12">
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <v>1.2161999999999999</v>
-      </c>
-      <c r="K10">
-        <v>1.2173</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" ref="M10:M11" si="8">(SMALL(K10:L10,1)-J10)*1000</f>
-        <v>1.1000000000001009</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" ref="N10:N11" si="9">M10/(I10/1000)</f>
-        <v>36.666666666670032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G11" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H11" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I11" s="12">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>1.2211000000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.2218</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="8"/>
-        <v>0.69999999999992291</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="9"/>
-        <v>23.333333333330764</v>
-      </c>
-      <c r="O11" s="12">
-        <v>8.25</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11" si="10">IF(G11-F11&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="12" t="str">
-        <f t="shared" ref="U11" si="11">IF(AND(D11="Stock Solution", N11&gt;=90, N11&lt;=110), "Good", IF(AND(D11="DI", N11&gt;=-3.33, N11&lt;=3.33), "Good", IF(OR(D11&lt;&gt;"Stock Solution", D11&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G12" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I12" s="12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>1.2281</v>
-      </c>
-      <c r="K12">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" ref="M12:M13" si="12">(SMALL(K12:L12,1)-J12)*1000</f>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" ref="N12:N13" si="13">M12/(I12/1000)</f>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="12">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G13" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H13" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I13" s="12">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>1.2148000000000001</v>
-      </c>
-      <c r="K13">
-        <v>1.2156</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="12"/>
-        <v>0.79999999999991189</v>
-      </c>
-      <c r="N13" s="14">
-        <f t="shared" si="13"/>
-        <v>26.66666666666373</v>
-      </c>
-      <c r="O13" s="12">
-        <v>8.24</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="12" t="b">
-        <f t="shared" ref="T13" si="14">IF(G13-F13&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="12" t="str">
-        <f t="shared" ref="U13" si="15">IF(AND(D13="Stock Solution", N13&gt;=90, N13&lt;=110), "Good", IF(AND(D13="DI", N13&gt;=-3.33, N13&lt;=3.33), "Good", IF(OR(D13&lt;&gt;"Stock Solution", D13&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H14" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I14" s="12">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>1.2161999999999999</v>
-      </c>
-      <c r="K14">
-        <v>1.2171000000000001</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" ref="M14:M15" si="16">(SMALL(K14:L14,1)-J14)*1000</f>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" ref="N14:N15" si="17">M14/(I14/1000)</f>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="12">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G15" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H15" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I15" s="12">
-        <v>30</v>
-      </c>
-      <c r="J15">
-        <v>1.2181999999999999</v>
-      </c>
-      <c r="K15">
-        <v>1.2184999999999999</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="16"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="17"/>
-        <v>9.9999999999988987</v>
-      </c>
-      <c r="O15" s="12">
-        <v>8.36</v>
-      </c>
-      <c r="P15" s="12">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T15" s="12" t="b">
-        <f t="shared" ref="T15" si="18">IF(G15-F15&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="12" t="str">
-        <f t="shared" ref="U15" si="19">IF(AND(D15="Stock Solution", N15&gt;=90, N15&lt;=110), "Good", IF(AND(D15="DI", N15&gt;=-3.33, N15&lt;=3.33), "Good", IF(OR(D15&lt;&gt;"Stock Solution", D15&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G16" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H16" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I16" s="12">
-        <v>30</v>
-      </c>
-      <c r="J16">
-        <v>1.1956</v>
-      </c>
-      <c r="K16">
-        <v>1.1959</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" ref="M16:M17" si="20">(SMALL(K16:L16,1)-J16)*1000</f>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" ref="N16:N17" si="21">M16/(I16/1000)</f>
-        <v>9.9999999999988987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="12">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G17" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H17" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I17" s="12">
-        <v>30</v>
-      </c>
-      <c r="J17">
-        <v>1.2131000000000001</v>
-      </c>
-      <c r="K17">
-        <v>1.2134</v>
-      </c>
-      <c r="M17" s="14">
-        <f t="shared" si="20"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N17" s="14">
-        <f t="shared" si="21"/>
-        <v>9.9999999999988987</v>
-      </c>
-      <c r="O17" s="12">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T17" s="12" t="b">
-        <f t="shared" ref="T17" si="22">IF(G17-F17&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="12" t="str">
-        <f t="shared" ref="U17" si="23">IF(AND(D17="Stock Solution", N17&gt;=90, N17&lt;=110), "Good", IF(AND(D17="DI", N17&gt;=-3.33, N17&lt;=3.33), "Good", IF(OR(D17&lt;&gt;"Stock Solution", D17&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G18" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H18" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I18" s="12">
-        <v>30</v>
-      </c>
-      <c r="J18">
-        <v>1.1971000000000001</v>
-      </c>
-      <c r="K18">
-        <v>1.1978</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" ref="M18:M19" si="24">(SMALL(K18:L18,1)-J18)*1000</f>
-        <v>0.69999999999992291</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" ref="N18:N19" si="25">M18/(I18/1000)</f>
-        <v>23.333333333330764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="12">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G19" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H19" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I19" s="12">
-        <v>30</v>
-      </c>
-      <c r="J19">
-        <v>1.2038</v>
-      </c>
-      <c r="K19">
-        <v>1.2039</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="24"/>
-        <v>9.9999999999988987E-2</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="25"/>
-        <v>3.3333333333329662</v>
-      </c>
-      <c r="O19" s="12">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.39</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" ref="T19" si="26">IF(G19-F19&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="12" t="str">
-        <f t="shared" ref="U19" si="27">IF(AND(D19="Stock Solution", N19&gt;=90, N19&lt;=110), "Good", IF(AND(D19="DI", N19&gt;=-3.33, N19&lt;=3.33), "Good", IF(OR(D19&lt;&gt;"Stock Solution", D19&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G20" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H20" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I20" s="12">
-        <v>30</v>
-      </c>
-      <c r="J20">
-        <v>1.2015</v>
-      </c>
-      <c r="K20">
-        <v>1.2016</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" ref="M20:M21" si="28">(SMALL(K20:L20,1)-J20)*1000</f>
-        <v>9.9999999999988987E-2</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" ref="N20:N21" si="29">M20/(I20/1000)</f>
-        <v>3.3333333333329662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="12">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G21" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H21" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I21" s="12">
-        <v>30</v>
-      </c>
-      <c r="J21">
-        <v>1.2197</v>
-      </c>
-      <c r="K21">
-        <v>1.22</v>
-      </c>
-      <c r="M21" s="14">
-        <f t="shared" si="28"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N21" s="14">
-        <f t="shared" si="29"/>
-        <v>9.9999999999988987</v>
-      </c>
-      <c r="O21" s="12">
-        <v>8.42</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.39</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T21" s="12" t="b">
-        <f t="shared" ref="T21" si="30">IF(G21-F21&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="12" t="str">
-        <f t="shared" ref="U21" si="31">IF(AND(D21="Stock Solution", N21&gt;=90, N21&lt;=110), "Good", IF(AND(D21="DI", N21&gt;=-3.33, N21&lt;=3.33), "Good", IF(OR(D21&lt;&gt;"Stock Solution", D21&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G22" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H22" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I22" s="12">
-        <v>30</v>
-      </c>
-      <c r="J22">
-        <v>1.2314000000000001</v>
-      </c>
-      <c r="K22">
-        <v>1.2317</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" ref="M22:M27" si="32">(SMALL(K22:L22,1)-J22)*1000</f>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" ref="N22:N27" si="33">M22/(I22/1000)</f>
-        <v>9.9999999999988987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G23" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H23" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I23" s="12">
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <v>1.1967000000000001</v>
-      </c>
-      <c r="K23">
-        <v>1.1975</v>
-      </c>
-      <c r="M23" s="14">
-        <f t="shared" si="32"/>
-        <v>0.79999999999991189</v>
-      </c>
-      <c r="N23" s="14">
-        <f t="shared" si="33"/>
-        <v>26.66666666666373</v>
-      </c>
-      <c r="O23" s="12">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="P23" s="12">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="Q23" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23" s="12" t="b">
-        <f t="shared" ref="T23" si="34">IF(G23-F23&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="12" t="str">
-        <f t="shared" ref="U23" si="35">IF(AND(D23="Stock Solution", N23&gt;=90, N23&lt;=110), "Good", IF(AND(D23="DI", N23&gt;=-3.33, N23&lt;=3.33), "Good", IF(OR(D23&lt;&gt;"Stock Solution", D23&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G24" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H24" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I24" s="12">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>1.2144999999999999</v>
-      </c>
-      <c r="K24">
-        <v>1.2149000000000001</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="32"/>
-        <v>0.40000000000017799</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" si="33"/>
-        <v>13.333333333339267</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G25" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H25" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I25" s="12">
-        <v>30</v>
-      </c>
-      <c r="J25">
-        <v>1.2123999999999999</v>
-      </c>
-      <c r="K25">
-        <v>1.2132000000000001</v>
-      </c>
-      <c r="M25" s="14">
-        <f t="shared" si="32"/>
-        <v>0.80000000000013394</v>
-      </c>
-      <c r="N25" s="14">
-        <f t="shared" si="33"/>
-        <v>26.666666666671134</v>
-      </c>
-      <c r="O25" s="12">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0.154</v>
-      </c>
-      <c r="Q25" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T25" s="12" t="b">
-        <f t="shared" ref="T25" si="36">IF(G25-F25&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="12" t="str">
-        <f t="shared" ref="U25" si="37">IF(AND(D25="Stock Solution", N25&gt;=90, N25&lt;=110), "Good", IF(AND(D25="DI", N25&gt;=-3.33, N25&lt;=3.33), "Good", IF(OR(D25&lt;&gt;"Stock Solution", D25&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G26" s="6">
-        <v>45097</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I26" s="12">
-        <v>30</v>
-      </c>
-      <c r="J26">
-        <v>1.1976</v>
-      </c>
-      <c r="K26">
-        <v>1.1984999999999999</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="32"/>
-        <v>0.89999999999990088</v>
-      </c>
-      <c r="N26" s="18">
-        <f t="shared" si="33"/>
-        <v>29.999999999996696</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="12">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G27" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H27" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I27" s="12">
-        <v>30</v>
-      </c>
-      <c r="J27">
-        <v>1.2065999999999999</v>
-      </c>
-      <c r="K27">
-        <v>1.2074</v>
-      </c>
-      <c r="M27" s="14">
-        <f t="shared" si="32"/>
-        <v>0.80000000000013394</v>
-      </c>
-      <c r="N27" s="14">
-        <f t="shared" si="33"/>
-        <v>26.666666666671134</v>
-      </c>
-      <c r="O27" s="12">
-        <v>7.72</v>
-      </c>
-      <c r="P27" s="12">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T27" s="12" t="b">
-        <f t="shared" ref="T27" si="38">IF(G27-F27&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="12" t="str">
-        <f t="shared" ref="U27" si="39">IF(AND(D27="Stock Solution", N27&gt;=90, N27&lt;=110), "Good", IF(AND(D27="DI", N27&gt;=-3.33, N27&lt;=3.33), "Good", IF(OR(D27&lt;&gt;"Stock Solution", D27&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>45097</v>
-      </c>
-      <c r="G28" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H28" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I28" s="12">
-        <v>30</v>
-      </c>
-      <c r="J28">
-        <v>1.2141</v>
-      </c>
-      <c r="K28">
-        <v>1.2151000000000001</v>
-      </c>
-      <c r="M28" s="18">
-        <f t="shared" ref="M28:M42" si="40">(SMALL(K28:L28,1)-J28)*1000</f>
-        <v>1.0000000000001119</v>
-      </c>
-      <c r="N28" s="18">
-        <f t="shared" ref="N28:N42" si="41">M28/(I28/1000)</f>
-        <v>33.333333333337066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>45078</v>
-      </c>
-      <c r="G29" s="6">
-        <v>45081</v>
-      </c>
-      <c r="H29" s="6">
-        <v>45085</v>
-      </c>
-      <c r="I29" s="12">
-        <v>30</v>
-      </c>
-      <c r="J29">
-        <v>1.2017</v>
-      </c>
-      <c r="K29">
-        <v>1.2114</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" si="40"/>
-        <v>9.7000000000000419</v>
-      </c>
-      <c r="N29" s="18">
-        <f t="shared" si="41"/>
-        <v>323.33333333333474</v>
-      </c>
-      <c r="O29" s="12">
-        <v>7.51</v>
-      </c>
-      <c r="P29" s="12">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>45082.486111053244</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T29" s="12" t="b">
-        <f t="shared" ref="T29" si="42">IF(G29-F29&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="12" t="str">
-        <f t="shared" ref="U29" si="43">IF(AND(D29="Stock Solution", N29&gt;=90, N29&lt;=110), "Good", IF(AND(D29="DI", N29&gt;=-3.33, N29&lt;=3.33), "Good", IF(OR(D29&lt;&gt;"Stock Solution", D29&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-      <c r="V29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A30" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="20">
-        <v>8</v>
-      </c>
-      <c r="C30" s="20">
-        <v>5</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21">
-        <v>45078</v>
-      </c>
-      <c r="G30" s="21">
-        <v>45098</v>
-      </c>
-      <c r="H30" s="21">
-        <v>45102</v>
-      </c>
-      <c r="I30" s="22">
-        <v>30</v>
-      </c>
-      <c r="J30" s="20">
-        <v>1.2144999999999999</v>
-      </c>
-      <c r="K30" s="20">
-        <v>1.2154</v>
-      </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="23">
-        <f t="shared" si="40"/>
-        <v>0.90000000000012292</v>
-      </c>
-      <c r="N30" s="23">
-        <f t="shared" si="41"/>
-        <v>30.0000000000041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="12">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G31" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H31" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I31" s="12">
-        <v>30</v>
-      </c>
-      <c r="J31">
-        <v>1.2020999999999999</v>
-      </c>
-      <c r="K31">
-        <v>1.2020999999999999</v>
-      </c>
-      <c r="M31" s="18">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="18">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="12">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T31" s="12" t="b">
-        <f t="shared" ref="T31" si="44">IF(G31-F31&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="12" t="str">
-        <f t="shared" ref="U31" si="45">IF(AND(D31="Stock Solution", N31&gt;=90, N31&lt;=110), "Good", IF(AND(D31="DI", N31&gt;=-3.33, N31&lt;=3.33), "Good", IF(OR(D31&lt;&gt;"Stock Solution", D31&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G32" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H32" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I32" s="12">
-        <v>30</v>
-      </c>
-      <c r="J32">
-        <v>1.2205999999999999</v>
-      </c>
-      <c r="K32">
-        <v>1.2212000000000001</v>
-      </c>
-      <c r="M32" s="18">
-        <f t="shared" si="40"/>
-        <v>0.60000000000015596</v>
-      </c>
-      <c r="N32" s="18">
-        <f t="shared" si="41"/>
-        <v>20.000000000005201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="12">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G33" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H33" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I33" s="12">
-        <v>30</v>
-      </c>
-      <c r="J33">
-        <v>1.1915</v>
-      </c>
-      <c r="K33">
-        <v>1.1915</v>
-      </c>
-      <c r="M33" s="18">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="12">
-        <v>7.99</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T33" s="12" t="b">
-        <f t="shared" ref="T33" si="46">IF(G33-F33&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="12" t="str">
-        <f t="shared" ref="U33" si="47">IF(AND(D33="Stock Solution", N33&gt;=90, N33&lt;=110), "Good", IF(AND(D33="DI", N33&gt;=-3.33, N33&lt;=3.33), "Good", IF(OR(D33&lt;&gt;"Stock Solution", D33&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G34" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H34" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I34" s="12">
-        <v>30</v>
-      </c>
-      <c r="J34">
-        <v>1.2158</v>
-      </c>
-      <c r="K34">
-        <v>1.2166999999999999</v>
-      </c>
-      <c r="M34" s="18">
-        <f t="shared" si="40"/>
-        <v>0.89999999999990088</v>
-      </c>
-      <c r="N34" s="18">
-        <f t="shared" si="41"/>
-        <v>29.999999999996696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="12">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G35" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H35" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I35" s="12">
-        <v>30</v>
-      </c>
-      <c r="J35">
-        <v>1.214</v>
-      </c>
-      <c r="K35">
-        <v>1.2142999999999999</v>
-      </c>
-      <c r="M35" s="18">
-        <f t="shared" si="40"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N35" s="18">
-        <f t="shared" si="41"/>
-        <v>9.9999999999988987</v>
-      </c>
-      <c r="O35" s="12">
-        <v>7.89</v>
-      </c>
-      <c r="P35" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T35" s="12" t="b">
-        <f t="shared" ref="T35" si="48">IF(G35-F35&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="12" t="str">
-        <f t="shared" ref="U35" si="49">IF(AND(D35="Stock Solution", N35&gt;=90, N35&lt;=110), "Good", IF(AND(D35="DI", N35&gt;=-3.33, N35&lt;=3.33), "Good", IF(OR(D35&lt;&gt;"Stock Solution", D35&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G36" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H36" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I36" s="12">
-        <v>30</v>
-      </c>
-      <c r="J36">
-        <v>1.2175</v>
-      </c>
-      <c r="K36">
-        <v>1.2181</v>
-      </c>
-      <c r="M36" s="18">
-        <f t="shared" si="40"/>
-        <v>0.59999999999993392</v>
-      </c>
-      <c r="N36" s="18">
-        <f t="shared" si="41"/>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G37" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H37" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I37" s="12">
-        <v>30</v>
-      </c>
-      <c r="J37">
-        <v>1.1974</v>
-      </c>
-      <c r="K37">
-        <v>1.1976</v>
-      </c>
-      <c r="M37" s="18">
-        <f t="shared" si="40"/>
-        <v>0.19999999999997797</v>
-      </c>
-      <c r="N37" s="18">
-        <f t="shared" si="41"/>
-        <v>6.6666666666659324</v>
-      </c>
-      <c r="O37" s="12">
-        <v>8.02</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="Q37" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T37" s="12" t="b">
-        <f t="shared" ref="T37" si="50">IF(G37-F37&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="12" t="str">
-        <f t="shared" ref="U37" si="51">IF(AND(D37="Stock Solution", N37&gt;=90, N37&lt;=110), "Good", IF(AND(D37="DI", N37&gt;=-3.33, N37&lt;=3.33), "Good", IF(OR(D37&lt;&gt;"Stock Solution", D37&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G38" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H38" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I38" s="12">
-        <v>30</v>
-      </c>
-      <c r="J38">
-        <v>1.2168000000000001</v>
-      </c>
-      <c r="K38">
-        <v>1.2173</v>
-      </c>
-      <c r="M38" s="18">
-        <f t="shared" si="40"/>
-        <v>0.49999999999994493</v>
-      </c>
-      <c r="N38" s="18">
-        <f t="shared" si="41"/>
-        <v>16.666666666664831</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G39" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H39" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I39" s="12">
-        <v>30</v>
-      </c>
-      <c r="J39">
-        <v>1.2201</v>
-      </c>
-      <c r="K39">
-        <v>1.2203999999999999</v>
-      </c>
-      <c r="M39" s="18">
-        <f t="shared" si="40"/>
-        <v>0.29999999999996696</v>
-      </c>
-      <c r="N39" s="18">
-        <f t="shared" si="41"/>
-        <v>9.9999999999988987</v>
-      </c>
-      <c r="O39" s="12">
-        <v>8.01</v>
-      </c>
-      <c r="P39" s="12">
-        <v>0.46</v>
-      </c>
-      <c r="Q39" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="T39" s="12" t="b">
-        <f t="shared" ref="T39" si="52">IF(G39-F39&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="12" t="str">
-        <f t="shared" ref="U39" si="53">IF(AND(D39="Stock Solution", N39&gt;=90, N39&lt;=110), "Good", IF(AND(D39="DI", N39&gt;=-3.33, N39&lt;=3.33), "Good", IF(OR(D39&lt;&gt;"Stock Solution", D39&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G40" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H40" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I40" s="12">
-        <v>30</v>
-      </c>
-      <c r="J40">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="K40">
-        <v>1.2016</v>
-      </c>
-      <c r="M40" s="18">
-        <f t="shared" si="40"/>
-        <v>0.59999999999993392</v>
-      </c>
-      <c r="N40" s="18">
-        <f t="shared" si="41"/>
-        <v>19.999999999997797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G41" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H41" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I41" s="12">
-        <v>30</v>
-      </c>
-      <c r="J41">
-        <v>1.2141999999999999</v>
-      </c>
-      <c r="K41">
-        <v>1.2141999999999999</v>
-      </c>
-      <c r="M41" s="18">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="18">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="12">
-        <v>7.97</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>45091.125</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T41" s="12" t="b">
-        <f t="shared" ref="T41" si="54">IF(G41-F41&gt;7, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="12" t="str">
-        <f t="shared" ref="U41" si="55">IF(AND(D41="Stock Solution", N41&gt;=90, N41&lt;=110), "Good", IF(AND(D41="DI", N41&gt;=-3.33, N41&lt;=3.33), "Good", IF(OR(D41&lt;&gt;"Stock Solution", D41&lt;&gt;"DI"), "", "Bad")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>45085</v>
-      </c>
-      <c r="G42" s="6">
-        <v>45098</v>
-      </c>
-      <c r="H42" s="6">
-        <v>45102</v>
-      </c>
-      <c r="I42" s="12">
-        <v>30</v>
-      </c>
-      <c r="J42">
-        <v>1.2165999999999999</v>
-      </c>
-      <c r="K42">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="M42" s="18">
-        <f t="shared" si="40"/>
-        <v>0.40000000000017799</v>
-      </c>
-      <c r="N42" s="18">
-        <f t="shared" si="41"/>
-        <v>13.333333333339267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD5783-6DE4-4462-AE79-C2E78620ED17}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -5550,7 +3267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -5589,7 +3306,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -5628,7 +3345,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -5665,7 +3382,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5703,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5740,7 +3457,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -5777,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -5814,7 +3531,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -5851,7 +3568,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5885,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5919,7 +3636,7 @@
         <v>93.333333333337862</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5954,7 +3671,7 @@
       </c>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5989,7 +3706,7 @@
       </c>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>4</v>
       </c>
@@ -6026,7 +3743,7 @@
         <v>103.33333333332936</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>5</v>
       </c>
@@ -6063,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>4</v>
       </c>
@@ -6100,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>4</v>
       </c>
@@ -6140,7 +3857,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -6180,7 +3897,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -6220,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -6257,7 +3974,7 @@
         <v>96.666666666663431</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6294,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -6331,7 +4048,7 @@
         <v>100.00000000000379</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -6368,7 +4085,7 @@
         <v>-3.3333333333329662</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -6405,7 +4122,7 @@
         <v>96.666666666670821</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -6442,7 +4159,7 @@
         <v>3.3333333333329662</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -6479,7 +4196,7 @@
         <v>106.66666666666973</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -6516,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -6553,7 +4270,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -6590,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -6627,7 +4344,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -6664,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -6701,7 +4418,7 @@
         <v>103.33333333333675</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -6738,7 +4455,7 @@
         <v>3.3333333333329662</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -6775,7 +4492,7 @@
         <v>99.99999999999639</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -6812,7 +4529,7 @@
         <v>3.3333333333329662</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -6849,7 +4566,7 @@
         <v>103.33333333333675</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -6886,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -6923,7 +4640,7 @@
         <v>103.33333333332936</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -6967,26 +4684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100678F2DA36292A241BB6B602A04ACAAD9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d9fb0f190deb5e7e937e6d8ad317d77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="167cb1e9-24b5-43e0-9f5d-14a54474cc90" xmlns:ns3="fbf6f0f6-9634-473c-8838-2f74fc79f714" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="211896cd03a7fb44aac70cae515804dc" ns2:_="" ns3:_="">
     <xsd:import namespace="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
@@ -7235,10 +4932,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFBBD27-ACF1-4801-B8AD-B8A884D06C80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
+    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7255,20 +4983,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFBBD27-ACF1-4801-B8AD-B8A884D06C80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF83E157-1D15-4BA2-846C-E5B17F63B121}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
-    <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>